--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_12_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_12_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1290565.735299488</v>
+        <v>1230428.324822128</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2769434.991672651</v>
+        <v>2769434.99167265</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12496462.15353539</v>
+        <v>12496462.15353538</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7650156.221238827</v>
+        <v>7650156.221238828</v>
       </c>
     </row>
     <row r="11">
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.9698472542777</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>123.9698472542777</v>
+        <v>109.1926414615678</v>
       </c>
       <c r="U11" t="n">
-        <v>123.9698472542777</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="V11" t="n">
-        <v>109.1926414615678</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>39.25886926420932</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>123.9698472542777</v>
+        <v>109.1926414615678</v>
       </c>
       <c r="H12" t="n">
-        <v>116.7767975749586</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.1268218766776</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.9698472542777</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>123.9698472542778</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.9698472542777</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.83271124830171</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>123.9698472542777</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>123.9698472542777</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.83271124830159</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>123.9698472542778</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>109.1926414615678</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>109.1926414615678</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>123.9698472542778</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>123.9698472542778</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.1268218766776</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>123.9698472542778</v>
+        <v>109.1926414615678</v>
       </c>
       <c r="T15" t="n">
-        <v>123.9698472542778</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>123.9698472542778</v>
       </c>
       <c r="W15" t="n">
-        <v>32.06581958489017</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>123.9698472542778</v>
       </c>
     </row>
     <row r="16">
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>33.83271124830161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.09737445818803</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>123.9698472542778</v>
-      </c>
-      <c r="S16" t="n">
-        <v>123.9698472542778</v>
-      </c>
-      <c r="T16" t="n">
-        <v>95.70518404439136</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>336.2578833115314</v>
       </c>
       <c r="C17" t="n">
-        <v>175.9908208952464</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>376.2956164255465</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>376.2956164255465</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>174.1716362309285</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>376.2956164255465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>150.9681212116294</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>147.8169978631527</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>116.7767975749586</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.1268218766776</v>
+        <v>73.82705615464505</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>174.3609053568781</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.2320180092416</v>
       </c>
       <c r="U18" t="n">
         <v>237.1670427461337</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>78.90898546872363</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9231007044182</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>158.910166837993</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>24.91263076489935</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>227.0167228466059</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>376.295616425547</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>214.8766478315719</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.0118461904316</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>86.24603712110097</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>376.295616425547</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>68.39707753681668</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>147.8169978631527</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>116.7767975749586</v>
       </c>
       <c r="I21" t="n">
-        <v>75.42607744893647</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.1268218766776</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>174.3609053568781</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.2320180092416</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>189.0893615021995</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>115.4315459217996</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>160.633237826685</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>334.6567459917244</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>417.1044816849221</v>
       </c>
       <c r="H23" t="n">
-        <v>329.266232810535</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>174.1716362309285</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>85.97756065788508</v>
+        <v>85.97756065788511</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>188.0105045672576</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.8766478315719</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0118461904316</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>91.8701513876576</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -2417,7 +2417,7 @@
         <v>116.7767975749586</v>
       </c>
       <c r="I24" t="n">
-        <v>75.42607744893645</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.12682187667758</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>174.3609053568781</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.2320180092416</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>118.6300877676076</v>
       </c>
       <c r="V24" t="n">
-        <v>15.74730233386889</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>118.8834615481992</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>160.633237826685</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>302.3905366659755</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>181.674064644277</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>329.266232810535</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>85.97756065788508</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>214.8766478315719</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0118461904316</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>147.8169978631527</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>116.7767975749586</v>
       </c>
       <c r="I27" t="n">
-        <v>48.12996789273456</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.12682187667758</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>174.3609053568781</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>71.28612958370938</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1670427461337</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>141.4661832606479</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>115.4315459217996</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.65914908551912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
         <v>417.1044816849221</v>
       </c>
       <c r="H29" t="n">
-        <v>329.266232810535</v>
+        <v>143.7231488600788</v>
       </c>
       <c r="I29" t="n">
-        <v>174.1716362309285</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>85.97756065788508</v>
+        <v>85.97756065788511</v>
       </c>
       <c r="S29" t="n">
         <v>188.0105045672576</v>
       </c>
       <c r="T29" t="n">
-        <v>107.4986415841237</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>147.8169978631527</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>116.7767975749586</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>75.42607744893645</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.1268218766776</v>
       </c>
       <c r="S30" t="n">
         <v>174.3609053568781</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.2320180092416</v>
       </c>
       <c r="U30" t="n">
-        <v>201.3052589368764</v>
+        <v>237.1670427461337</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -2939,7 +2939,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>205.5659003635932</v>
       </c>
     </row>
     <row r="31">
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>109.9239383221113</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.25804003559783</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2994,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>62.09737445818801</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>168.462900195238</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>160.633237826685</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>246.8964325399288</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.1044816849221</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>329.266232810535</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>174.1716362309285</v>
+        <v>98.54746483919423</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>85.97756065788508</v>
+        <v>85.97756065788511</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>188.0105045672576</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.8766478315719</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0118461904316</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>15.45037323522051</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>75.42607744893645</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.12682187667758</v>
+        <v>77.1268218766776</v>
       </c>
       <c r="S33" t="n">
         <v>174.3609053568781</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.2320180092416</v>
       </c>
       <c r="U33" t="n">
-        <v>195.982282459428</v>
+        <v>237.1670427461337</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.10242178845179</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>115.4315459217996</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>111.6858858876313</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>389.9416537780971</v>
+        <v>389.941653778097</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>85.97756065788508</v>
+        <v>40.0056041222449</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0118461904316</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>11.9708153801932</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>31.21176207236412</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>147.8169978631527</v>
       </c>
       <c r="H36" t="n">
-        <v>116.7767975749586</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>75.42607744893645</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.12682187667758</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>174.3609053568781</v>
       </c>
       <c r="T36" t="n">
         <v>211.2320180092416</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1670427461337</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>115.4315459217996</v>
       </c>
       <c r="E37" t="n">
-        <v>98.89227008827021</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9231007044182</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>389.9416537780971</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>389.9416537780971</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>309.2187800044848</v>
+        <v>329.266232810535</v>
       </c>
       <c r="I38" t="n">
-        <v>174.1716362309285</v>
+        <v>70.47214339671173</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0118461904316</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>93.70451736918477</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>4.864097602592558</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>147.8169978631527</v>
       </c>
       <c r="H39" t="n">
-        <v>116.7767975749586</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>75.42607744893645</v>
+        <v>75.42607744893647</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.12682187667758</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>115.4315459217996</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>115.4315459217998</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>137.6158846068283</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>137.6158846068283</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>121.2120711616943</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="V41" t="n">
-        <v>121.2120711616943</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>137.6158846068283</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>137.6158846068283</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="C42" t="n">
-        <v>45.78599371275792</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>137.6158846068283</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>137.6158846068283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>75.42607744893645</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>121.2120711616943</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>137.6158846068282</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>137.6158846068283</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>137.6158846068283</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>130.5104837974784</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.5104837974785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>121.2120711616943</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>137.6158846068283</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>121.2120711616944</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>137.6158846068283</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="X44" t="n">
-        <v>137.6158846068283</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>137.6158846068282</v>
       </c>
     </row>
     <row r="45">
@@ -4058,73 +4058,73 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>137.6158846068282</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>121.2120711616943</v>
       </c>
-      <c r="E45" t="n">
-        <v>137.6158846068283</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>137.6158846068283</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
       <c r="Y45" t="n">
-        <v>137.6158846068283</v>
+        <v>137.6158846068282</v>
       </c>
     </row>
     <row r="46">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>137.6158846068283</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>137.6158846068283</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>130.5104837974784</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.5104837974785</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="C11" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="D11" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="E11" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="F11" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="G11" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="H11" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="I11" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="J11" t="n">
-        <v>9.917587780342219</v>
+        <v>79.57721628749687</v>
       </c>
       <c r="K11" t="n">
-        <v>132.6477365620772</v>
+        <v>83.2982425404055</v>
       </c>
       <c r="L11" t="n">
-        <v>182.284148131145</v>
+        <v>132.9346541094733</v>
       </c>
       <c r="M11" t="n">
-        <v>276.1509335961474</v>
+        <v>255.6648028912083</v>
       </c>
       <c r="N11" t="n">
-        <v>391.3307418718976</v>
+        <v>356.6792973019134</v>
       </c>
       <c r="O11" t="n">
-        <v>470.4468457882147</v>
+        <v>470.4468457882148</v>
       </c>
       <c r="P11" t="n">
         <v>495.879389017111</v>
@@ -5068,25 +5068,25 @@
         <v>495.879389017111</v>
       </c>
       <c r="S11" t="n">
-        <v>370.6573210834971</v>
+        <v>495.879389017111</v>
       </c>
       <c r="T11" t="n">
-        <v>245.4352531498832</v>
+        <v>385.583791581184</v>
       </c>
       <c r="U11" t="n">
-        <v>120.2131852162693</v>
+        <v>260.36172364757</v>
       </c>
       <c r="V11" t="n">
-        <v>9.917587780342219</v>
+        <v>135.1396557139561</v>
       </c>
       <c r="W11" t="n">
-        <v>9.917587780342219</v>
+        <v>135.1396557139561</v>
       </c>
       <c r="X11" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>292.7514403999843</v>
+        <v>120.2131852162693</v>
       </c>
       <c r="C12" t="n">
-        <v>292.7514403999843</v>
+        <v>120.2131852162693</v>
       </c>
       <c r="D12" t="n">
-        <v>253.096016900783</v>
+        <v>120.2131852162693</v>
       </c>
       <c r="E12" t="n">
-        <v>253.096016900783</v>
+        <v>120.2131852162693</v>
       </c>
       <c r="F12" t="n">
-        <v>253.096016900783</v>
+        <v>120.2131852162693</v>
       </c>
       <c r="G12" t="n">
-        <v>127.8739489671691</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="H12" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="I12" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="J12" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="K12" t="n">
-        <v>26.51141919569883</v>
+        <v>26.51141919569878</v>
       </c>
       <c r="L12" t="n">
-        <v>105.3373735489213</v>
+        <v>105.3373735489212</v>
       </c>
       <c r="M12" t="n">
-        <v>220.9389234692264</v>
+        <v>220.9389234692265</v>
       </c>
       <c r="N12" t="n">
-        <v>343.6690722509613</v>
+        <v>343.6690722509615</v>
       </c>
       <c r="O12" t="n">
-        <v>441.1936545887662</v>
+        <v>441.1936545887663</v>
       </c>
       <c r="P12" t="n">
         <v>495.879389017111</v>
@@ -5144,28 +5144,28 @@
         <v>495.879389017111</v>
       </c>
       <c r="R12" t="n">
-        <v>417.9735083335982</v>
+        <v>495.879389017111</v>
       </c>
       <c r="S12" t="n">
-        <v>292.7514403999843</v>
+        <v>495.879389017111</v>
       </c>
       <c r="T12" t="n">
-        <v>292.7514403999843</v>
+        <v>495.879389017111</v>
       </c>
       <c r="U12" t="n">
-        <v>292.7514403999843</v>
+        <v>495.879389017111</v>
       </c>
       <c r="V12" t="n">
-        <v>292.7514403999843</v>
+        <v>370.6573210834971</v>
       </c>
       <c r="W12" t="n">
-        <v>292.7514403999843</v>
+        <v>245.4352531498832</v>
       </c>
       <c r="X12" t="n">
-        <v>292.7514403999843</v>
+        <v>245.4352531498832</v>
       </c>
       <c r="Y12" t="n">
-        <v>292.7514403999843</v>
+        <v>120.2131852162693</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>169.3141115203215</v>
+        <v>135.1396557139561</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3141115203215</v>
+        <v>135.1396557139561</v>
       </c>
       <c r="D13" t="n">
-        <v>169.3141115203215</v>
+        <v>135.1396557139561</v>
       </c>
       <c r="E13" t="n">
-        <v>169.3141115203215</v>
+        <v>135.1396557139561</v>
       </c>
       <c r="F13" t="n">
-        <v>169.3141115203215</v>
+        <v>135.1396557139561</v>
       </c>
       <c r="G13" t="n">
-        <v>169.3141115203215</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="H13" t="n">
-        <v>169.3141115203215</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="I13" t="n">
-        <v>44.09204358670758</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="J13" t="n">
-        <v>9.917587780342219</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="K13" t="n">
         <v>33.00599654143699</v>
@@ -5223,28 +5223,28 @@
         <v>419.7582473875492</v>
       </c>
       <c r="R13" t="n">
-        <v>294.5361794539353</v>
+        <v>419.7582473875492</v>
       </c>
       <c r="S13" t="n">
-        <v>169.3141115203215</v>
+        <v>419.7582473875492</v>
       </c>
       <c r="T13" t="n">
-        <v>169.3141115203215</v>
+        <v>419.7582473875492</v>
       </c>
       <c r="U13" t="n">
-        <v>169.3141115203215</v>
+        <v>419.7582473875492</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3141115203215</v>
+        <v>419.7582473875492</v>
       </c>
       <c r="W13" t="n">
-        <v>169.3141115203215</v>
+        <v>419.7582473875492</v>
       </c>
       <c r="X13" t="n">
-        <v>169.3141115203215</v>
+        <v>385.583791581184</v>
       </c>
       <c r="Y13" t="n">
-        <v>169.3141115203215</v>
+        <v>260.36172364757</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.91758778034222</v>
+        <v>120.2131852162693</v>
       </c>
       <c r="C14" t="n">
-        <v>9.91758778034222</v>
+        <v>120.2131852162693</v>
       </c>
       <c r="D14" t="n">
         <v>9.91758778034222</v>
@@ -5278,22 +5278,22 @@
         <v>9.91758778034222</v>
       </c>
       <c r="J14" t="n">
-        <v>79.57721628749687</v>
+        <v>9.91758778034222</v>
       </c>
       <c r="K14" t="n">
-        <v>83.2982425404055</v>
+        <v>13.63861403325085</v>
       </c>
       <c r="L14" t="n">
-        <v>132.9346541094733</v>
+        <v>99.15185644335141</v>
       </c>
       <c r="M14" t="n">
-        <v>226.8014395744758</v>
+        <v>193.0186419083538</v>
       </c>
       <c r="N14" t="n">
-        <v>327.8159339851809</v>
+        <v>294.0331363190589</v>
       </c>
       <c r="O14" t="n">
-        <v>406.932037901498</v>
+        <v>373.1492402353761</v>
       </c>
       <c r="P14" t="n">
         <v>495.879389017111</v>
@@ -5308,22 +5308,22 @@
         <v>495.879389017111</v>
       </c>
       <c r="T14" t="n">
-        <v>495.879389017111</v>
+        <v>370.6573210834971</v>
       </c>
       <c r="U14" t="n">
-        <v>495.879389017111</v>
+        <v>370.6573210834971</v>
       </c>
       <c r="V14" t="n">
-        <v>385.583791581184</v>
+        <v>370.6573210834971</v>
       </c>
       <c r="W14" t="n">
-        <v>260.36172364757</v>
+        <v>370.6573210834971</v>
       </c>
       <c r="X14" t="n">
-        <v>135.1396557139561</v>
+        <v>245.4352531498832</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.91758778034222</v>
+        <v>120.2131852162693</v>
       </c>
     </row>
     <row r="15">
@@ -5360,46 +5360,46 @@
         <v>9.91758778034222</v>
       </c>
       <c r="K15" t="n">
-        <v>26.51141919569869</v>
+        <v>26.51141919569879</v>
       </c>
       <c r="L15" t="n">
         <v>105.3373735489212</v>
       </c>
       <c r="M15" t="n">
-        <v>220.9389234692265</v>
+        <v>220.9389234692264</v>
       </c>
       <c r="N15" t="n">
         <v>343.6690722509614</v>
       </c>
       <c r="O15" t="n">
-        <v>441.1936545887663</v>
+        <v>441.1936545887662</v>
       </c>
       <c r="P15" t="n">
-        <v>495.879389017111</v>
+        <v>495.8793890171109</v>
       </c>
       <c r="Q15" t="n">
         <v>495.879389017111</v>
       </c>
       <c r="R15" t="n">
-        <v>417.9735083335983</v>
+        <v>495.879389017111</v>
       </c>
       <c r="S15" t="n">
-        <v>292.7514403999843</v>
+        <v>385.583791581184</v>
       </c>
       <c r="T15" t="n">
-        <v>167.5293724663704</v>
+        <v>385.583791581184</v>
       </c>
       <c r="U15" t="n">
-        <v>167.5293724663704</v>
+        <v>385.583791581184</v>
       </c>
       <c r="V15" t="n">
-        <v>42.30730453275653</v>
+        <v>260.36172364757</v>
       </c>
       <c r="W15" t="n">
-        <v>9.91758778034222</v>
+        <v>135.1396557139561</v>
       </c>
       <c r="X15" t="n">
-        <v>9.91758778034222</v>
+        <v>135.1396557139561</v>
       </c>
       <c r="Y15" t="n">
         <v>9.91758778034222</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.91758778034222</v>
+        <v>294.5361794539353</v>
       </c>
       <c r="C16" t="n">
-        <v>9.91758778034222</v>
+        <v>294.5361794539353</v>
       </c>
       <c r="D16" t="n">
-        <v>9.91758778034222</v>
+        <v>169.3141115203214</v>
       </c>
       <c r="E16" t="n">
-        <v>9.91758778034222</v>
+        <v>169.3141115203214</v>
       </c>
       <c r="F16" t="n">
-        <v>9.91758778034222</v>
+        <v>44.09204358670748</v>
       </c>
       <c r="G16" t="n">
-        <v>9.91758778034222</v>
+        <v>44.09204358670748</v>
       </c>
       <c r="H16" t="n">
-        <v>9.91758778034222</v>
+        <v>44.09204358670748</v>
       </c>
       <c r="I16" t="n">
         <v>9.91758778034222</v>
@@ -5457,31 +5457,31 @@
         <v>419.7582473875492</v>
       </c>
       <c r="Q16" t="n">
-        <v>357.0336267227128</v>
+        <v>419.7582473875492</v>
       </c>
       <c r="R16" t="n">
-        <v>231.8115587890989</v>
+        <v>419.7582473875492</v>
       </c>
       <c r="S16" t="n">
-        <v>106.589490855485</v>
+        <v>419.7582473875492</v>
       </c>
       <c r="T16" t="n">
-        <v>9.91758778034222</v>
+        <v>419.7582473875492</v>
       </c>
       <c r="U16" t="n">
-        <v>9.91758778034222</v>
+        <v>419.7582473875492</v>
       </c>
       <c r="V16" t="n">
-        <v>9.91758778034222</v>
+        <v>294.5361794539353</v>
       </c>
       <c r="W16" t="n">
-        <v>9.91758778034222</v>
+        <v>294.5361794539353</v>
       </c>
       <c r="X16" t="n">
-        <v>9.91758778034222</v>
+        <v>294.5361794539353</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.91758778034222</v>
+        <v>294.5361794539353</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.8031009566447</v>
+        <v>1165.52803811478</v>
       </c>
       <c r="C17" t="n">
-        <v>206.0345950018503</v>
+        <v>1165.52803811478</v>
       </c>
       <c r="D17" t="n">
-        <v>206.0345950018503</v>
+        <v>1165.52803811478</v>
       </c>
       <c r="E17" t="n">
-        <v>206.0345950018503</v>
+        <v>790.2968138100973</v>
       </c>
       <c r="F17" t="n">
-        <v>206.0345950018503</v>
+        <v>410.2002315620705</v>
       </c>
       <c r="G17" t="n">
-        <v>206.0345950018503</v>
+        <v>30.10364931404372</v>
       </c>
       <c r="H17" t="n">
-        <v>206.0345950018503</v>
+        <v>30.10364931404372</v>
       </c>
       <c r="I17" t="n">
-        <v>30.10364931404373</v>
+        <v>30.10364931404372</v>
       </c>
       <c r="J17" t="n">
-        <v>30.10364931404373</v>
+        <v>99.76327782119837</v>
       </c>
       <c r="K17" t="n">
-        <v>241.770440639606</v>
+        <v>311.4300691467606</v>
       </c>
       <c r="L17" t="n">
-        <v>559.3448745670788</v>
+        <v>361.0664807158284</v>
       </c>
       <c r="M17" t="n">
-        <v>653.2116600320812</v>
+        <v>733.5991409771195</v>
       </c>
       <c r="N17" t="n">
-        <v>949.9025790071267</v>
+        <v>1106.131801238411</v>
       </c>
       <c r="O17" t="n">
-        <v>1273.30961520712</v>
+        <v>1429.538837438404</v>
       </c>
       <c r="P17" t="n">
-        <v>1505.182465702186</v>
+        <v>1454.971380667301</v>
       </c>
       <c r="Q17" t="n">
         <v>1505.182465702186</v>
@@ -5557,10 +5557,10 @@
         <v>1505.182465702186</v>
       </c>
       <c r="X17" t="n">
-        <v>1141.76558257622</v>
+        <v>1505.182465702186</v>
       </c>
       <c r="Y17" t="n">
-        <v>761.6690003281935</v>
+        <v>1505.182465702186</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>944.6341974817683</v>
+        <v>379.9436398638359</v>
       </c>
       <c r="C18" t="n">
-        <v>792.1411457528498</v>
+        <v>190.5313655967996</v>
       </c>
       <c r="D18" t="n">
-        <v>631.3610295138815</v>
+        <v>190.5313655967996</v>
       </c>
       <c r="E18" t="n">
-        <v>457.797825635296</v>
+        <v>190.5313655967996</v>
       </c>
       <c r="F18" t="n">
-        <v>297.3701093525401</v>
+        <v>30.10364931404372</v>
       </c>
       <c r="G18" t="n">
-        <v>148.0600105008706</v>
+        <v>30.10364931404372</v>
       </c>
       <c r="H18" t="n">
-        <v>30.10364931404373</v>
+        <v>30.10364931404372</v>
       </c>
       <c r="I18" t="n">
-        <v>30.10364931404373</v>
+        <v>30.10364931404372</v>
       </c>
       <c r="J18" t="n">
-        <v>64.91532834268949</v>
+        <v>64.91532834268948</v>
       </c>
       <c r="K18" t="n">
         <v>251.1688986063555</v>
@@ -5603,43 +5603,43 @@
         <v>567.8963512786531</v>
       </c>
       <c r="M18" t="n">
-        <v>902.0088605907927</v>
+        <v>759.7616327749763</v>
       </c>
       <c r="N18" t="n">
-        <v>1038.248586351553</v>
+        <v>896.0013585357362</v>
       </c>
       <c r="O18" t="n">
-        <v>1135.773168689357</v>
+        <v>1246.196495935949</v>
       </c>
       <c r="P18" t="n">
-        <v>1394.759138455595</v>
+        <v>1505.182465702186</v>
       </c>
       <c r="Q18" t="n">
         <v>1505.182465702186</v>
       </c>
       <c r="R18" t="n">
-        <v>1427.276585018673</v>
+        <v>1430.609681707595</v>
       </c>
       <c r="S18" t="n">
-        <v>1427.276585018673</v>
+        <v>1254.487555084486</v>
       </c>
       <c r="T18" t="n">
-        <v>1427.276585018673</v>
+        <v>1041.121880327676</v>
       </c>
       <c r="U18" t="n">
-        <v>1187.713915578134</v>
+        <v>801.5592108871369</v>
       </c>
       <c r="V18" t="n">
-        <v>944.6341974817683</v>
+        <v>558.479492790771</v>
       </c>
       <c r="W18" t="n">
-        <v>944.6341974817683</v>
+        <v>558.479492790771</v>
       </c>
       <c r="X18" t="n">
-        <v>944.6341974817683</v>
+        <v>558.479492790771</v>
       </c>
       <c r="Y18" t="n">
-        <v>944.6341974817683</v>
+        <v>558.479492790771</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>439.9443089212507</v>
+        <v>215.7832428523188</v>
       </c>
       <c r="C19" t="n">
-        <v>439.9443089212507</v>
+        <v>215.7832428523188</v>
       </c>
       <c r="D19" t="n">
-        <v>439.9443089212507</v>
+        <v>215.7832428523188</v>
       </c>
       <c r="E19" t="n">
-        <v>439.9443089212507</v>
+        <v>215.7832428523188</v>
       </c>
       <c r="F19" t="n">
-        <v>360.238262993247</v>
+        <v>215.7832428523188</v>
       </c>
       <c r="G19" t="n">
-        <v>190.6189693524205</v>
+        <v>215.7832428523188</v>
       </c>
       <c r="H19" t="n">
-        <v>30.10364931404373</v>
+        <v>55.26792281394205</v>
       </c>
       <c r="I19" t="n">
-        <v>30.10364931404373</v>
+        <v>30.10364931404372</v>
       </c>
       <c r="J19" t="n">
-        <v>30.10364931404373</v>
+        <v>30.10364931404372</v>
       </c>
       <c r="K19" t="n">
-        <v>53.19205807513849</v>
+        <v>53.19205807513848</v>
       </c>
       <c r="L19" t="n">
         <v>135.824518136804</v>
@@ -5715,10 +5715,10 @@
         <v>439.9443089212507</v>
       </c>
       <c r="X19" t="n">
-        <v>439.9443089212507</v>
+        <v>215.7832428523188</v>
       </c>
       <c r="Y19" t="n">
-        <v>439.9443089212507</v>
+        <v>215.7832428523188</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>600.5974700098349</v>
+        <v>785.431455866754</v>
       </c>
       <c r="C20" t="n">
-        <v>600.5974700098349</v>
+        <v>785.431455866754</v>
       </c>
       <c r="D20" t="n">
-        <v>259.4134703712214</v>
+        <v>785.431455866754</v>
       </c>
       <c r="E20" t="n">
-        <v>30.10364931404377</v>
+        <v>410.2002315620711</v>
       </c>
       <c r="F20" t="n">
-        <v>30.10364931404377</v>
+        <v>410.2002315620711</v>
       </c>
       <c r="G20" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="H20" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="I20" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="J20" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="K20" t="n">
         <v>241.770440639606</v>
@@ -5761,16 +5761,16 @@
         <v>559.3448745670788</v>
       </c>
       <c r="M20" t="n">
-        <v>931.8775348283705</v>
+        <v>848.8880845964235</v>
       </c>
       <c r="N20" t="n">
-        <v>1304.10147579612</v>
+        <v>949.9025790071286</v>
       </c>
       <c r="O20" t="n">
-        <v>1383.217579712438</v>
+        <v>1273.309615207122</v>
       </c>
       <c r="P20" t="n">
-        <v>1408.650122941334</v>
+        <v>1505.182465702188</v>
       </c>
       <c r="Q20" t="n">
         <v>1505.182465702188</v>
@@ -5782,22 +5782,22 @@
         <v>1505.182465702188</v>
       </c>
       <c r="T20" t="n">
-        <v>1288.135346680399</v>
+        <v>1505.182465702188</v>
       </c>
       <c r="U20" t="n">
-        <v>1288.135346680399</v>
+        <v>1252.645247328015</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0143531358007</v>
+        <v>1165.528038114781</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0143531358007</v>
+        <v>1165.528038114781</v>
       </c>
       <c r="X20" t="n">
-        <v>600.5974700098349</v>
+        <v>1165.528038114781</v>
       </c>
       <c r="Y20" t="n">
-        <v>600.5974700098349</v>
+        <v>785.431455866754</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1057.741377039014</v>
+        <v>377.5756838915221</v>
       </c>
       <c r="C21" t="n">
-        <v>868.3291027719775</v>
+        <v>377.5756838915221</v>
       </c>
       <c r="D21" t="n">
-        <v>707.5489865330093</v>
+        <v>377.5756838915221</v>
       </c>
       <c r="E21" t="n">
-        <v>533.9857826544237</v>
+        <v>308.4877267836265</v>
       </c>
       <c r="F21" t="n">
-        <v>373.5580663716678</v>
+        <v>148.0600105008706</v>
       </c>
       <c r="G21" t="n">
-        <v>224.2479675199984</v>
+        <v>148.0600105008706</v>
       </c>
       <c r="H21" t="n">
-        <v>106.2916063331715</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="I21" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="J21" t="n">
-        <v>64.91532834268953</v>
+        <v>64.91532834268952</v>
       </c>
       <c r="K21" t="n">
-        <v>81.50915975804611</v>
+        <v>251.1688986063555</v>
       </c>
       <c r="L21" t="n">
-        <v>398.2366124303437</v>
+        <v>567.8963512786531</v>
       </c>
       <c r="M21" t="n">
-        <v>770.7692726916354</v>
+        <v>683.4979011989583</v>
       </c>
       <c r="N21" t="n">
-        <v>1143.301932952927</v>
+        <v>896.0013585357383</v>
       </c>
       <c r="O21" t="n">
-        <v>1240.826515290732</v>
+        <v>1246.196495935951</v>
       </c>
       <c r="P21" t="n">
-        <v>1394.759138455597</v>
+        <v>1505.182465702188</v>
       </c>
       <c r="Q21" t="n">
         <v>1505.182465702188</v>
       </c>
       <c r="R21" t="n">
-        <v>1427.276585018676</v>
+        <v>1505.182465702188</v>
       </c>
       <c r="S21" t="n">
-        <v>1427.276585018676</v>
+        <v>1329.060339079079</v>
       </c>
       <c r="T21" t="n">
-        <v>1427.276585018676</v>
+        <v>1115.694664322269</v>
       </c>
       <c r="U21" t="n">
-        <v>1427.276585018676</v>
+        <v>1115.694664322269</v>
       </c>
       <c r="V21" t="n">
-        <v>1427.276585018676</v>
+        <v>872.6149462259032</v>
       </c>
       <c r="W21" t="n">
-        <v>1427.276585018676</v>
+        <v>603.2163769561945</v>
       </c>
       <c r="X21" t="n">
-        <v>1427.276585018676</v>
+        <v>603.2163769561945</v>
       </c>
       <c r="Y21" t="n">
-        <v>1236.277229965949</v>
+        <v>377.5756838915221</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="C22" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="D22" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="E22" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="F22" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="G22" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="H22" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="I22" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="J22" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="K22" t="n">
         <v>53.19205807513853</v>
@@ -5946,16 +5946,16 @@
         <v>439.9443089212508</v>
       </c>
       <c r="V22" t="n">
-        <v>323.3467877881199</v>
+        <v>192.3594450985741</v>
       </c>
       <c r="W22" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="X22" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.10364931404377</v>
+        <v>30.10364931404376</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1716.262764888776</v>
+        <v>803.6145779888016</v>
       </c>
       <c r="C23" t="n">
-        <v>1378.225647725418</v>
+        <v>803.6145779888016</v>
       </c>
       <c r="D23" t="n">
-        <v>1378.225647725418</v>
+        <v>462.4305783501881</v>
       </c>
       <c r="E23" t="n">
-        <v>1378.225647725418</v>
+        <v>462.4305783501881</v>
       </c>
       <c r="F23" t="n">
-        <v>970.9536783920705</v>
+        <v>462.4305783501881</v>
       </c>
       <c r="G23" t="n">
-        <v>549.6360201244723</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="H23" t="n">
-        <v>217.0438657703966</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="I23" t="n">
         <v>41.11292008258999</v>
       </c>
       <c r="J23" t="n">
-        <v>110.7725485897446</v>
+        <v>110.7725485897449</v>
       </c>
       <c r="K23" t="n">
-        <v>322.4393399153068</v>
+        <v>322.4393399153075</v>
       </c>
       <c r="L23" t="n">
-        <v>640.0137738427798</v>
+        <v>640.0137738427804</v>
       </c>
       <c r="M23" t="n">
-        <v>1022.252481314104</v>
+        <v>1022.252481314105</v>
       </c>
       <c r="N23" t="n">
         <v>1403.833774673586</v>
@@ -6016,25 +6016,25 @@
         <v>1968.799983262949</v>
       </c>
       <c r="S23" t="n">
-        <v>1968.799983262949</v>
+        <v>1778.890382689961</v>
       </c>
       <c r="T23" t="n">
-        <v>1968.799983262949</v>
+        <v>1561.843263668172</v>
       </c>
       <c r="U23" t="n">
-        <v>1716.262764888776</v>
+        <v>1561.843263668172</v>
       </c>
       <c r="V23" t="n">
-        <v>1716.262764888776</v>
+        <v>1237.722270123574</v>
       </c>
       <c r="W23" t="n">
-        <v>1716.262764888776</v>
+        <v>896.4127107036072</v>
       </c>
       <c r="X23" t="n">
-        <v>1716.262764888776</v>
+        <v>803.6145779888016</v>
       </c>
       <c r="Y23" t="n">
-        <v>1716.262764888776</v>
+        <v>803.6145779888016</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1068.75064780756</v>
+        <v>831.7825745494641</v>
       </c>
       <c r="C24" t="n">
-        <v>879.3383735405238</v>
+        <v>642.3703002824278</v>
       </c>
       <c r="D24" t="n">
-        <v>718.5582573015555</v>
+        <v>642.3703002824278</v>
       </c>
       <c r="E24" t="n">
-        <v>544.9950534229699</v>
+        <v>468.8070964038423</v>
       </c>
       <c r="F24" t="n">
-        <v>384.567337140214</v>
+        <v>308.3793801210863</v>
       </c>
       <c r="G24" t="n">
-        <v>235.2572382885446</v>
+        <v>159.0692812694168</v>
       </c>
       <c r="H24" t="n">
-        <v>117.3008771017177</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="I24" t="n">
         <v>41.11292008258999</v>
@@ -6071,13 +6071,13 @@
         <v>41.11292008258999</v>
       </c>
       <c r="K24" t="n">
-        <v>161.2060088773191</v>
+        <v>227.366490346256</v>
       </c>
       <c r="L24" t="n">
-        <v>477.9334615496167</v>
+        <v>544.0939430185535</v>
       </c>
       <c r="M24" t="n">
-        <v>892.2941239668219</v>
+        <v>958.4546054357587</v>
       </c>
       <c r="N24" t="n">
         <v>1336.041569716458</v>
@@ -6092,28 +6092,28 @@
         <v>2055.646004129499</v>
       </c>
       <c r="R24" t="n">
-        <v>1977.740123445987</v>
+        <v>2055.646004129499</v>
       </c>
       <c r="S24" t="n">
-        <v>1977.740123445987</v>
+        <v>1879.52387750639</v>
       </c>
       <c r="T24" t="n">
-        <v>1977.740123445987</v>
+        <v>1666.158202749581</v>
       </c>
       <c r="U24" t="n">
-        <v>1977.740123445987</v>
+        <v>1546.329831267149</v>
       </c>
       <c r="V24" t="n">
-        <v>1961.83375745218</v>
+        <v>1546.329831267149</v>
       </c>
       <c r="W24" t="n">
-        <v>1692.435188182471</v>
+        <v>1276.93126199744</v>
       </c>
       <c r="X24" t="n">
-        <v>1472.927193799168</v>
+        <v>1057.423267614136</v>
       </c>
       <c r="Y24" t="n">
-        <v>1247.286500734495</v>
+        <v>831.7825745494641</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2055.646004129499</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="C25" t="n">
-        <v>2055.646004129499</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="D25" t="n">
-        <v>1908.996862462115</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="E25" t="n">
-        <v>1765.889649116433</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="F25" t="n">
-        <v>1645.805344522292</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="G25" t="n">
-        <v>1645.805344522292</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="H25" t="n">
-        <v>1645.805344522292</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="I25" t="n">
-        <v>1645.805344522292</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="J25" t="n">
-        <v>1645.805344522292</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="K25" t="n">
-        <v>1668.893753283387</v>
+        <v>64.20132884368475</v>
       </c>
       <c r="L25" t="n">
-        <v>1751.526213345053</v>
+        <v>146.8337889053503</v>
       </c>
       <c r="M25" t="n">
-        <v>1847.246446203608</v>
+        <v>242.554021763905</v>
       </c>
       <c r="N25" t="n">
-        <v>1948.706802129589</v>
+        <v>344.0143776898865</v>
       </c>
       <c r="O25" t="n">
-        <v>2020.424216307438</v>
+        <v>415.7317918677359</v>
       </c>
       <c r="P25" t="n">
-        <v>2055.646004129499</v>
+        <v>450.953579689797</v>
       </c>
       <c r="Q25" t="n">
-        <v>2055.646004129499</v>
+        <v>450.953579689797</v>
       </c>
       <c r="R25" t="n">
-        <v>2055.646004129499</v>
+        <v>450.953579689797</v>
       </c>
       <c r="S25" t="n">
-        <v>2055.646004129499</v>
+        <v>450.953579689797</v>
       </c>
       <c r="T25" t="n">
-        <v>2055.646004129499</v>
+        <v>450.953579689797</v>
       </c>
       <c r="U25" t="n">
-        <v>2055.646004129499</v>
+        <v>450.953579689797</v>
       </c>
       <c r="V25" t="n">
-        <v>2055.646004129499</v>
+        <v>203.3687158671204</v>
       </c>
       <c r="W25" t="n">
-        <v>2055.646004129499</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="X25" t="n">
-        <v>2055.646004129499</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="Y25" t="n">
-        <v>2055.646004129499</v>
+        <v>41.11292008258999</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1041.484832900147</v>
+        <v>557.2142306430062</v>
       </c>
       <c r="C26" t="n">
-        <v>687.7419062524918</v>
+        <v>557.2142306430062</v>
       </c>
       <c r="D26" t="n">
-        <v>346.5579066138784</v>
+        <v>557.2142306430062</v>
       </c>
       <c r="E26" t="n">
-        <v>41.11292008258999</v>
+        <v>557.2142306430062</v>
       </c>
       <c r="F26" t="n">
-        <v>41.11292008258999</v>
+        <v>557.2142306430062</v>
       </c>
       <c r="G26" t="n">
-        <v>41.11292008258999</v>
+        <v>373.7050744366658</v>
       </c>
       <c r="H26" t="n">
         <v>41.11292008258999</v>
@@ -6226,10 +6226,10 @@
         <v>41.11292008258999</v>
       </c>
       <c r="J26" t="n">
-        <v>110.7725485897447</v>
+        <v>110.7725485897446</v>
       </c>
       <c r="K26" t="n">
-        <v>322.439339915307</v>
+        <v>322.4393399153069</v>
       </c>
       <c r="L26" t="n">
         <v>640.0137738427798</v>
@@ -6238,7 +6238,7 @@
         <v>1022.252481314104</v>
       </c>
       <c r="N26" t="n">
-        <v>1403.833774673586</v>
+        <v>1403.833774673585</v>
       </c>
       <c r="O26" t="n">
         <v>1727.240810873579</v>
@@ -6250,28 +6250,28 @@
         <v>2055.646004129499</v>
       </c>
       <c r="R26" t="n">
-        <v>1968.799983262949</v>
+        <v>2055.646004129499</v>
       </c>
       <c r="S26" t="n">
-        <v>1968.799983262949</v>
+        <v>2055.646004129499</v>
       </c>
       <c r="T26" t="n">
-        <v>1751.752864241159</v>
+        <v>1838.59888510771</v>
       </c>
       <c r="U26" t="n">
-        <v>1751.752864241159</v>
+        <v>1586.061666733536</v>
       </c>
       <c r="V26" t="n">
-        <v>1427.631870696561</v>
+        <v>1261.940673188938</v>
       </c>
       <c r="W26" t="n">
-        <v>1427.631870696561</v>
+        <v>920.631113768972</v>
       </c>
       <c r="X26" t="n">
-        <v>1427.631870696561</v>
+        <v>557.2142306430062</v>
       </c>
       <c r="Y26" t="n">
-        <v>1041.484832900147</v>
+        <v>557.2142306430062</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>602.0146262644616</v>
+        <v>671.3548582667082</v>
       </c>
       <c r="C27" t="n">
-        <v>412.6023519974253</v>
+        <v>481.9425839996719</v>
       </c>
       <c r="D27" t="n">
-        <v>412.6023519974253</v>
+        <v>481.9425839996719</v>
       </c>
       <c r="E27" t="n">
-        <v>239.0391481188398</v>
+        <v>308.3793801210863</v>
       </c>
       <c r="F27" t="n">
-        <v>239.0391481188398</v>
+        <v>308.3793801210863</v>
       </c>
       <c r="G27" t="n">
-        <v>89.72904926717035</v>
+        <v>159.0692812694168</v>
       </c>
       <c r="H27" t="n">
-        <v>89.72904926717035</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="I27" t="n">
         <v>41.11292008258999</v>
       </c>
       <c r="J27" t="n">
-        <v>75.92459911123576</v>
+        <v>75.92459911123575</v>
       </c>
       <c r="K27" t="n">
         <v>262.1781693749018</v>
@@ -6314,10 +6314,10 @@
         <v>578.9056220471994</v>
       </c>
       <c r="M27" t="n">
-        <v>993.2662844644046</v>
+        <v>993.2662844644045</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.041569716458</v>
+        <v>1437.013730214041</v>
       </c>
       <c r="O27" t="n">
         <v>1686.236707116671</v>
@@ -6329,28 +6329,28 @@
         <v>2055.646004129499</v>
       </c>
       <c r="R27" t="n">
-        <v>1977.740123445987</v>
+        <v>2055.646004129499</v>
       </c>
       <c r="S27" t="n">
-        <v>1977.740123445987</v>
+        <v>1879.52387750639</v>
       </c>
       <c r="T27" t="n">
-        <v>1977.740123445987</v>
+        <v>1807.517686007694</v>
       </c>
       <c r="U27" t="n">
-        <v>1738.177454005448</v>
+        <v>1807.517686007694</v>
       </c>
       <c r="V27" t="n">
-        <v>1495.097735909082</v>
+        <v>1564.437967911328</v>
       </c>
       <c r="W27" t="n">
-        <v>1225.699166639373</v>
+        <v>1295.039398641619</v>
       </c>
       <c r="X27" t="n">
-        <v>1006.191172256069</v>
+        <v>1075.531404258316</v>
       </c>
       <c r="Y27" t="n">
-        <v>780.5504791913968</v>
+        <v>849.8907111936433</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>184.0080546893051</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="C28" t="n">
-        <v>184.0080546893051</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="D28" t="n">
-        <v>184.0080546893051</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="E28" t="n">
-        <v>184.0080546893051</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="F28" t="n">
-        <v>184.0080546893051</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="G28" t="n">
-        <v>184.0080546893051</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="H28" t="n">
-        <v>184.0080546893051</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="I28" t="n">
         <v>41.11292008258999</v>
@@ -6387,49 +6387,49 @@
         <v>41.11292008258999</v>
       </c>
       <c r="K28" t="n">
-        <v>64.20132884368476</v>
+        <v>64.20132884368475</v>
       </c>
       <c r="L28" t="n">
         <v>146.8337889053503</v>
       </c>
       <c r="M28" t="n">
-        <v>242.5540217639051</v>
+        <v>242.554021763905</v>
       </c>
       <c r="N28" t="n">
-        <v>344.0143776898866</v>
+        <v>344.0143776898865</v>
       </c>
       <c r="O28" t="n">
-        <v>415.731791867736</v>
+        <v>415.7317918677359</v>
       </c>
       <c r="P28" t="n">
-        <v>450.9535796897972</v>
+        <v>450.953579689797</v>
       </c>
       <c r="Q28" t="n">
-        <v>450.9535796897972</v>
+        <v>450.953579689797</v>
       </c>
       <c r="R28" t="n">
-        <v>450.9535796897972</v>
+        <v>450.953579689797</v>
       </c>
       <c r="S28" t="n">
-        <v>450.9535796897972</v>
+        <v>450.953579689797</v>
       </c>
       <c r="T28" t="n">
-        <v>450.9535796897972</v>
+        <v>450.953579689797</v>
       </c>
       <c r="U28" t="n">
-        <v>450.9535796897972</v>
+        <v>450.953579689797</v>
       </c>
       <c r="V28" t="n">
-        <v>450.9535796897972</v>
+        <v>450.953579689797</v>
       </c>
       <c r="W28" t="n">
-        <v>450.9535796897972</v>
+        <v>157.7104412157209</v>
       </c>
       <c r="X28" t="n">
-        <v>450.9535796897972</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="Y28" t="n">
-        <v>363.4190856640203</v>
+        <v>41.11292008258999</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1346.184902696753</v>
+        <v>1014.877445521999</v>
       </c>
       <c r="C29" t="n">
-        <v>1346.184902696753</v>
+        <v>1014.877445521999</v>
       </c>
       <c r="D29" t="n">
-        <v>1346.184902696753</v>
+        <v>1014.877445521999</v>
       </c>
       <c r="E29" t="n">
-        <v>970.9536783920705</v>
+        <v>1014.877445521999</v>
       </c>
       <c r="F29" t="n">
-        <v>970.9536783920705</v>
+        <v>607.6054761886516</v>
       </c>
       <c r="G29" t="n">
-        <v>549.6360201244723</v>
+        <v>186.2878179210534</v>
       </c>
       <c r="H29" t="n">
-        <v>217.0438657703966</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="I29" t="n">
         <v>41.11292008258999</v>
       </c>
       <c r="J29" t="n">
-        <v>110.7725485897447</v>
+        <v>110.7725485897446</v>
       </c>
       <c r="K29" t="n">
-        <v>322.439339915307</v>
+        <v>322.4393399153069</v>
       </c>
       <c r="L29" t="n">
         <v>640.0137738427798</v>
@@ -6475,7 +6475,7 @@
         <v>1022.252481314104</v>
       </c>
       <c r="N29" t="n">
-        <v>1403.833774673586</v>
+        <v>1403.833774673585</v>
       </c>
       <c r="O29" t="n">
         <v>1727.240810873579</v>
@@ -6493,22 +6493,22 @@
         <v>1778.890382689961</v>
       </c>
       <c r="T29" t="n">
-        <v>1670.305896241352</v>
+        <v>1778.890382689961</v>
       </c>
       <c r="U29" t="n">
-        <v>1670.305896241352</v>
+        <v>1778.890382689961</v>
       </c>
       <c r="V29" t="n">
-        <v>1346.184902696753</v>
+        <v>1778.890382689961</v>
       </c>
       <c r="W29" t="n">
-        <v>1346.184902696753</v>
+        <v>1778.890382689961</v>
       </c>
       <c r="X29" t="n">
-        <v>1346.184902696753</v>
+        <v>1778.890382689961</v>
       </c>
       <c r="Y29" t="n">
-        <v>1346.184902696753</v>
+        <v>1392.743344893547</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>718.5582573015555</v>
+        <v>230.5251943496263</v>
       </c>
       <c r="C30" t="n">
-        <v>718.5582573015555</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="D30" t="n">
-        <v>718.5582573015555</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="E30" t="n">
-        <v>544.9950534229699</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="F30" t="n">
-        <v>384.567337140214</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="G30" t="n">
-        <v>235.2572382885446</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="H30" t="n">
-        <v>117.3008771017177</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="I30" t="n">
         <v>41.11292008258999</v>
       </c>
       <c r="J30" t="n">
-        <v>75.92459911123576</v>
+        <v>75.92459911123575</v>
       </c>
       <c r="K30" t="n">
         <v>262.1781693749018</v>
@@ -6551,7 +6551,7 @@
         <v>578.9056220471994</v>
       </c>
       <c r="M30" t="n">
-        <v>993.2662844644046</v>
+        <v>993.2662844644045</v>
       </c>
       <c r="N30" t="n">
         <v>1437.013730214041</v>
@@ -6566,28 +6566,28 @@
         <v>2055.646004129499</v>
       </c>
       <c r="R30" t="n">
-        <v>2055.646004129499</v>
+        <v>1977.740123445987</v>
       </c>
       <c r="S30" t="n">
-        <v>1879.52387750639</v>
+        <v>1801.617996822878</v>
       </c>
       <c r="T30" t="n">
-        <v>1879.52387750639</v>
+        <v>1588.252322066068</v>
       </c>
       <c r="U30" t="n">
-        <v>1676.185232115606</v>
+        <v>1348.689652625529</v>
       </c>
       <c r="V30" t="n">
-        <v>1433.10551401924</v>
+        <v>1105.609934529163</v>
       </c>
       <c r="W30" t="n">
-        <v>1163.706944749531</v>
+        <v>836.2113652594541</v>
       </c>
       <c r="X30" t="n">
-        <v>944.1989503662278</v>
+        <v>616.7033708761504</v>
       </c>
       <c r="Y30" t="n">
-        <v>718.5582573015555</v>
+        <v>409.0610472765613</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>218.0644133732053</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="C31" t="n">
-        <v>218.0644133732053</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="D31" t="n">
-        <v>218.0644133732053</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="E31" t="n">
-        <v>218.0644133732053</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="F31" t="n">
-        <v>218.0644133732053</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="G31" t="n">
-        <v>218.0644133732053</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="H31" t="n">
-        <v>218.0644133732053</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="I31" t="n">
-        <v>107.0301322397595</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="J31" t="n">
         <v>41.11292008258999</v>
       </c>
       <c r="K31" t="n">
-        <v>64.20132884368476</v>
+        <v>64.20132884368475</v>
       </c>
       <c r="L31" t="n">
         <v>146.8337889053503</v>
       </c>
       <c r="M31" t="n">
-        <v>242.5540217639051</v>
+        <v>242.554021763905</v>
       </c>
       <c r="N31" t="n">
-        <v>344.0143776898866</v>
+        <v>344.0143776898865</v>
       </c>
       <c r="O31" t="n">
-        <v>415.731791867736</v>
+        <v>415.7317918677359</v>
       </c>
       <c r="P31" t="n">
-        <v>450.9535796897972</v>
+        <v>450.953579689797</v>
       </c>
       <c r="Q31" t="n">
-        <v>388.2289590249608</v>
+        <v>450.953579689797</v>
       </c>
       <c r="R31" t="n">
-        <v>218.0644133732053</v>
+        <v>450.953579689797</v>
       </c>
       <c r="S31" t="n">
-        <v>218.0644133732053</v>
+        <v>450.953579689797</v>
       </c>
       <c r="T31" t="n">
-        <v>218.0644133732053</v>
+        <v>450.953579689797</v>
       </c>
       <c r="U31" t="n">
-        <v>218.0644133732053</v>
+        <v>450.953579689797</v>
       </c>
       <c r="V31" t="n">
-        <v>218.0644133732053</v>
+        <v>203.3687158671204</v>
       </c>
       <c r="W31" t="n">
-        <v>218.0644133732053</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="X31" t="n">
-        <v>218.0644133732053</v>
+        <v>41.11292008258999</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.0644133732053</v>
+        <v>41.11292008258999</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1968.799983262949</v>
+        <v>923.1590074975838</v>
       </c>
       <c r="C32" t="n">
-        <v>1968.799983262949</v>
+        <v>923.1590074975838</v>
       </c>
       <c r="D32" t="n">
-        <v>1627.615983624336</v>
+        <v>923.1590074975838</v>
       </c>
       <c r="E32" t="n">
-        <v>1378.225647725418</v>
+        <v>547.9277831929008</v>
       </c>
       <c r="F32" t="n">
-        <v>970.9536783920705</v>
+        <v>140.6558138595539</v>
       </c>
       <c r="G32" t="n">
-        <v>549.6360201244723</v>
+        <v>140.6558138595539</v>
       </c>
       <c r="H32" t="n">
-        <v>217.0438657703966</v>
+        <v>140.6558138595539</v>
       </c>
       <c r="I32" t="n">
-        <v>41.11292008258999</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="J32" t="n">
-        <v>110.7725485897446</v>
+        <v>110.7725485897445</v>
       </c>
       <c r="K32" t="n">
-        <v>322.4393399153068</v>
+        <v>322.4393399153067</v>
       </c>
       <c r="L32" t="n">
-        <v>640.0137738427798</v>
+        <v>640.0137738427795</v>
       </c>
       <c r="M32" t="n">
         <v>1022.252481314104</v>
       </c>
       <c r="N32" t="n">
-        <v>1403.833774673586</v>
+        <v>1403.833774673585</v>
       </c>
       <c r="O32" t="n">
         <v>1727.240810873579</v>
       </c>
       <c r="P32" t="n">
-        <v>1959.113661368645</v>
+        <v>1959.113661368644</v>
       </c>
       <c r="Q32" t="n">
         <v>2055.646004129499</v>
       </c>
       <c r="R32" t="n">
-        <v>1968.799983262949</v>
+        <v>1968.799983262948</v>
       </c>
       <c r="S32" t="n">
-        <v>1968.799983262949</v>
+        <v>1778.890382689961</v>
       </c>
       <c r="T32" t="n">
-        <v>1968.799983262949</v>
+        <v>1561.843263668171</v>
       </c>
       <c r="U32" t="n">
-        <v>1968.799983262949</v>
+        <v>1309.306045293998</v>
       </c>
       <c r="V32" t="n">
-        <v>1968.799983262949</v>
+        <v>1309.306045293998</v>
       </c>
       <c r="W32" t="n">
-        <v>1968.799983262949</v>
+        <v>1309.306045293998</v>
       </c>
       <c r="X32" t="n">
-        <v>1968.799983262949</v>
+        <v>1309.306045293998</v>
       </c>
       <c r="Y32" t="n">
-        <v>1968.799983262949</v>
+        <v>923.1590074975838</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>467.4932676077223</v>
+        <v>391.0626778114776</v>
       </c>
       <c r="C33" t="n">
-        <v>278.0809933406859</v>
+        <v>391.0626778114776</v>
       </c>
       <c r="D33" t="n">
-        <v>117.3008771017177</v>
+        <v>230.2825615725094</v>
       </c>
       <c r="E33" t="n">
-        <v>117.3008771017177</v>
+        <v>56.71935769392383</v>
       </c>
       <c r="F33" t="n">
-        <v>117.3008771017177</v>
+        <v>56.71935769392383</v>
       </c>
       <c r="G33" t="n">
-        <v>117.3008771017177</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="H33" t="n">
-        <v>117.3008771017177</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="I33" t="n">
-        <v>41.11292008258999</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="J33" t="n">
-        <v>75.92459911123576</v>
+        <v>75.92459911123575</v>
       </c>
       <c r="K33" t="n">
-        <v>161.2060088773191</v>
+        <v>161.2060088773187</v>
       </c>
       <c r="L33" t="n">
-        <v>477.9334615496167</v>
+        <v>477.9334615496163</v>
       </c>
       <c r="M33" t="n">
-        <v>892.2941239668219</v>
+        <v>892.2941239668214</v>
       </c>
       <c r="N33" t="n">
         <v>1336.041569716458</v>
       </c>
       <c r="O33" t="n">
-        <v>1686.236707116671</v>
+        <v>1686.23670711667</v>
       </c>
       <c r="P33" t="n">
         <v>1945.222676882908</v>
@@ -6803,28 +6803,28 @@
         <v>2055.646004129499</v>
       </c>
       <c r="R33" t="n">
-        <v>1977.740123445987</v>
+        <v>1977.740123445986</v>
       </c>
       <c r="S33" t="n">
-        <v>1801.617996822878</v>
+        <v>1801.617996822877</v>
       </c>
       <c r="T33" t="n">
-        <v>1801.617996822878</v>
+        <v>1588.252322066067</v>
       </c>
       <c r="U33" t="n">
-        <v>1603.656095348708</v>
+        <v>1348.689652625528</v>
       </c>
       <c r="V33" t="n">
-        <v>1360.576377252342</v>
+        <v>1105.609934529162</v>
       </c>
       <c r="W33" t="n">
-        <v>1091.177807982633</v>
+        <v>836.2113652594536</v>
       </c>
       <c r="X33" t="n">
-        <v>871.6698135993297</v>
+        <v>616.70337087615</v>
       </c>
       <c r="Y33" t="n">
-        <v>646.0291205346573</v>
+        <v>391.0626778114776</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1960.593052828033</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="C34" t="n">
-        <v>1792.454486189677</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="D34" t="n">
-        <v>1645.805344522292</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="E34" t="n">
-        <v>1645.805344522292</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="F34" t="n">
-        <v>1645.805344522292</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="G34" t="n">
-        <v>1645.805344522292</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="H34" t="n">
-        <v>1645.805344522292</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="I34" t="n">
-        <v>1645.805344522292</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="J34" t="n">
-        <v>1645.805344522292</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="K34" t="n">
-        <v>1668.893753283387</v>
+        <v>64.20132884368475</v>
       </c>
       <c r="L34" t="n">
-        <v>1751.526213345053</v>
+        <v>146.8337889053503</v>
       </c>
       <c r="M34" t="n">
-        <v>1847.246446203608</v>
+        <v>242.554021763905</v>
       </c>
       <c r="N34" t="n">
-        <v>1948.706802129589</v>
+        <v>344.0143776898865</v>
       </c>
       <c r="O34" t="n">
-        <v>2020.424216307438</v>
+        <v>415.7317918677359</v>
       </c>
       <c r="P34" t="n">
-        <v>2055.646004129499</v>
+        <v>450.953579689797</v>
       </c>
       <c r="Q34" t="n">
-        <v>2055.646004129499</v>
+        <v>450.953579689797</v>
       </c>
       <c r="R34" t="n">
-        <v>2055.646004129499</v>
+        <v>450.953579689797</v>
       </c>
       <c r="S34" t="n">
-        <v>2055.646004129499</v>
+        <v>450.953579689797</v>
       </c>
       <c r="T34" t="n">
-        <v>2055.646004129499</v>
+        <v>450.953579689797</v>
       </c>
       <c r="U34" t="n">
-        <v>2055.646004129499</v>
+        <v>334.3560585566661</v>
       </c>
       <c r="V34" t="n">
-        <v>2055.646004129499</v>
+        <v>334.3560585566661</v>
       </c>
       <c r="W34" t="n">
-        <v>2055.646004129499</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="X34" t="n">
-        <v>2055.646004129499</v>
+        <v>41.11292008258998</v>
       </c>
       <c r="Y34" t="n">
-        <v>2055.646004129499</v>
+        <v>41.11292008258998</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>879.0738164516981</v>
+        <v>1141.491014607258</v>
       </c>
       <c r="C35" t="n">
-        <v>766.2597903025755</v>
+        <v>1141.491014607258</v>
       </c>
       <c r="D35" t="n">
-        <v>425.0757906639621</v>
+        <v>800.307014968645</v>
       </c>
       <c r="E35" t="n">
-        <v>425.0757906639621</v>
+        <v>425.075790663962</v>
       </c>
       <c r="F35" t="n">
-        <v>425.0757906639621</v>
+        <v>425.075790663962</v>
       </c>
       <c r="G35" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="H35" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="I35" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="J35" t="n">
-        <v>100.8549608094025</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="K35" t="n">
-        <v>104.5759870623111</v>
+        <v>129.5326009252199</v>
       </c>
       <c r="L35" t="n">
-        <v>422.150420989784</v>
+        <v>447.1070348526927</v>
       </c>
       <c r="M35" t="n">
-        <v>526.3730922969933</v>
+        <v>829.345742324017</v>
       </c>
       <c r="N35" t="n">
-        <v>907.9543856564745</v>
+        <v>1210.927035683498</v>
       </c>
       <c r="O35" t="n">
-        <v>1231.361421856468</v>
+        <v>1534.334071883492</v>
       </c>
       <c r="P35" t="n">
-        <v>1463.234272351534</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="Q35" t="n">
-        <v>1559.766615112389</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="R35" t="n">
-        <v>1472.920594245838</v>
+        <v>1519.356913978807</v>
       </c>
       <c r="S35" t="n">
-        <v>1472.920594245838</v>
+        <v>1519.356913978807</v>
       </c>
       <c r="T35" t="n">
-        <v>1472.920594245838</v>
+        <v>1519.356913978807</v>
       </c>
       <c r="U35" t="n">
-        <v>1220.383375871665</v>
+        <v>1519.356913978807</v>
       </c>
       <c r="V35" t="n">
-        <v>1220.383375871665</v>
+        <v>1519.356913978807</v>
       </c>
       <c r="W35" t="n">
-        <v>879.0738164516981</v>
+        <v>1519.356913978807</v>
       </c>
       <c r="X35" t="n">
-        <v>879.0738164516981</v>
+        <v>1519.356913978807</v>
       </c>
       <c r="Y35" t="n">
-        <v>879.0738164516981</v>
+        <v>1519.356913978807</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>756.0167723059914</v>
+        <v>180.5054311539172</v>
       </c>
       <c r="C36" t="n">
-        <v>566.6044980389551</v>
+        <v>180.5054311539172</v>
       </c>
       <c r="D36" t="n">
-        <v>566.6044980389551</v>
+        <v>180.5054311539172</v>
       </c>
       <c r="E36" t="n">
-        <v>535.0774656426277</v>
+        <v>180.5054311539172</v>
       </c>
       <c r="F36" t="n">
-        <v>374.6497493598718</v>
+        <v>180.5054311539172</v>
       </c>
       <c r="G36" t="n">
-        <v>225.3396505082024</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="H36" t="n">
-        <v>107.3832893213755</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="I36" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="J36" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="K36" t="n">
         <v>217.4489025659138</v>
       </c>
       <c r="L36" t="n">
-        <v>534.1763552382115</v>
+        <v>534.1763552382114</v>
       </c>
       <c r="M36" t="n">
-        <v>814.3457821851788</v>
+        <v>703.922454938587</v>
       </c>
       <c r="N36" t="n">
-        <v>950.5855079459388</v>
+        <v>840.1621806993469</v>
       </c>
       <c r="O36" t="n">
-        <v>1300.780645346151</v>
+        <v>1190.357318099559</v>
       </c>
       <c r="P36" t="n">
-        <v>1559.766615112389</v>
+        <v>1449.343287865797</v>
       </c>
       <c r="Q36" t="n">
-        <v>1559.766615112389</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="R36" t="n">
-        <v>1481.860734428876</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="S36" t="n">
-        <v>1481.860734428876</v>
+        <v>1383.644488489279</v>
       </c>
       <c r="T36" t="n">
-        <v>1268.495059672066</v>
+        <v>1170.278813732469</v>
       </c>
       <c r="U36" t="n">
-        <v>1268.495059672066</v>
+        <v>930.71614429193</v>
       </c>
       <c r="V36" t="n">
-        <v>1025.4153415757</v>
+        <v>687.6364261955641</v>
       </c>
       <c r="W36" t="n">
-        <v>756.0167723059914</v>
+        <v>418.2378569258555</v>
       </c>
       <c r="X36" t="n">
-        <v>756.0167723059914</v>
+        <v>418.2378569258555</v>
       </c>
       <c r="Y36" t="n">
-        <v>756.0167723059914</v>
+        <v>192.5971638611831</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>441.0359919094549</v>
+        <v>147.7928534353787</v>
       </c>
       <c r="C37" t="n">
-        <v>441.0359919094549</v>
+        <v>147.7928534353787</v>
       </c>
       <c r="D37" t="n">
-        <v>441.0359919094549</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="E37" t="n">
-        <v>341.1448100021113</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="F37" t="n">
-        <v>200.8146259430743</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="G37" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="H37" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="I37" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="J37" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="K37" t="n">
-        <v>54.28374106334255</v>
+        <v>54.28374106334253</v>
       </c>
       <c r="L37" t="n">
         <v>136.9162011250081</v>
       </c>
       <c r="M37" t="n">
-        <v>232.6364339835629</v>
+        <v>232.6364339835628</v>
       </c>
       <c r="N37" t="n">
         <v>334.0967899095443</v>
       </c>
       <c r="O37" t="n">
-        <v>405.8142040873938</v>
+        <v>405.8142040873936</v>
       </c>
       <c r="P37" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="Q37" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="R37" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="S37" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="T37" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="U37" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="V37" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="W37" t="n">
-        <v>441.0359919094549</v>
+        <v>147.7928534353787</v>
       </c>
       <c r="X37" t="n">
-        <v>441.0359919094549</v>
+        <v>147.7928534353787</v>
       </c>
       <c r="Y37" t="n">
-        <v>441.0359919094549</v>
+        <v>147.7928534353787</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1307.229396738215</v>
+        <v>810.2026941900083</v>
       </c>
       <c r="C38" t="n">
-        <v>1307.229396738215</v>
+        <v>810.2026941900083</v>
       </c>
       <c r="D38" t="n">
-        <v>1307.229396738215</v>
+        <v>810.2026941900083</v>
       </c>
       <c r="E38" t="n">
-        <v>1307.229396738215</v>
+        <v>434.9714698853253</v>
       </c>
       <c r="F38" t="n">
-        <v>913.3489383765009</v>
+        <v>434.9714698853253</v>
       </c>
       <c r="G38" t="n">
-        <v>519.4684800147866</v>
+        <v>434.9714698853253</v>
       </c>
       <c r="H38" t="n">
-        <v>207.1262779900544</v>
+        <v>102.3793155312495</v>
       </c>
       <c r="I38" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="J38" t="n">
-        <v>31.19533230224777</v>
+        <v>100.8549608094024</v>
       </c>
       <c r="K38" t="n">
-        <v>34.91635855515646</v>
+        <v>312.5217521349647</v>
       </c>
       <c r="L38" t="n">
-        <v>352.4907924826293</v>
+        <v>630.0961860624375</v>
       </c>
       <c r="M38" t="n">
-        <v>734.7294999539538</v>
+        <v>1012.334893533762</v>
       </c>
       <c r="N38" t="n">
-        <v>1116.310793313435</v>
+        <v>1393.916186893243</v>
       </c>
       <c r="O38" t="n">
-        <v>1439.717829513429</v>
+        <v>1473.03229080956</v>
       </c>
       <c r="P38" t="n">
-        <v>1559.766615112389</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="Q38" t="n">
-        <v>1559.766615112389</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="R38" t="n">
-        <v>1559.766615112389</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="S38" t="n">
-        <v>1559.766615112389</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="T38" t="n">
-        <v>1559.766615112389</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="U38" t="n">
-        <v>1307.229396738215</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="V38" t="n">
-        <v>1307.229396738215</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="W38" t="n">
-        <v>1307.229396738215</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="X38" t="n">
-        <v>1307.229396738215</v>
+        <v>1196.349731986422</v>
       </c>
       <c r="Y38" t="n">
-        <v>1307.229396738215</v>
+        <v>810.2026941900083</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>803.2916971668544</v>
+        <v>611.7990085806582</v>
       </c>
       <c r="C39" t="n">
-        <v>803.2916971668544</v>
+        <v>422.3867343136219</v>
       </c>
       <c r="D39" t="n">
-        <v>708.6406695212132</v>
+        <v>261.6066180746536</v>
       </c>
       <c r="E39" t="n">
-        <v>535.0774656426277</v>
+        <v>256.693388173045</v>
       </c>
       <c r="F39" t="n">
-        <v>374.6497493598718</v>
+        <v>256.693388173045</v>
       </c>
       <c r="G39" t="n">
-        <v>225.3396505082024</v>
+        <v>107.3832893213755</v>
       </c>
       <c r="H39" t="n">
         <v>107.3832893213755</v>
       </c>
       <c r="I39" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="J39" t="n">
-        <v>31.19533230224777</v>
+        <v>66.00701133089353</v>
       </c>
       <c r="K39" t="n">
-        <v>217.4489025659138</v>
+        <v>252.2605815945595</v>
       </c>
       <c r="L39" t="n">
-        <v>534.1763552382115</v>
+        <v>568.9880342668571</v>
       </c>
       <c r="M39" t="n">
-        <v>649.7779051585168</v>
+        <v>814.3457821851785</v>
       </c>
       <c r="N39" t="n">
-        <v>1035.820142398833</v>
+        <v>950.5855079459384</v>
       </c>
       <c r="O39" t="n">
         <v>1300.780645346151</v>
       </c>
       <c r="P39" t="n">
-        <v>1559.766615112389</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="Q39" t="n">
-        <v>1559.766615112389</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="R39" t="n">
-        <v>1481.860734428876</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="S39" t="n">
-        <v>1481.860734428876</v>
+        <v>1559.766615112388</v>
       </c>
       <c r="T39" t="n">
-        <v>1268.495059672066</v>
+        <v>1346.400940355578</v>
       </c>
       <c r="U39" t="n">
-        <v>1028.932390231527</v>
+        <v>1106.838270915039</v>
       </c>
       <c r="V39" t="n">
-        <v>1028.932390231527</v>
+        <v>1106.838270915039</v>
       </c>
       <c r="W39" t="n">
-        <v>1028.932390231527</v>
+        <v>837.4397016453305</v>
       </c>
       <c r="X39" t="n">
-        <v>1028.932390231527</v>
+        <v>837.4397016453305</v>
       </c>
       <c r="Y39" t="n">
-        <v>803.2916971668544</v>
+        <v>611.7990085806582</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.19533230224777</v>
+        <v>147.7928534353787</v>
       </c>
       <c r="C40" t="n">
-        <v>31.19533230224777</v>
+        <v>147.7928534353787</v>
       </c>
       <c r="D40" t="n">
-        <v>31.19533230224777</v>
+        <v>147.7928534353787</v>
       </c>
       <c r="E40" t="n">
-        <v>31.19533230224777</v>
+        <v>147.7928534353787</v>
       </c>
       <c r="F40" t="n">
-        <v>31.19533230224777</v>
+        <v>147.7928534353787</v>
       </c>
       <c r="G40" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="H40" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="I40" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="J40" t="n">
-        <v>31.19533230224777</v>
+        <v>31.19533230224776</v>
       </c>
       <c r="K40" t="n">
-        <v>54.28374106334255</v>
+        <v>54.28374106334253</v>
       </c>
       <c r="L40" t="n">
         <v>136.9162011250081</v>
       </c>
       <c r="M40" t="n">
-        <v>232.6364339835629</v>
+        <v>232.6364339835628</v>
       </c>
       <c r="N40" t="n">
         <v>334.0967899095443</v>
       </c>
       <c r="O40" t="n">
-        <v>405.8142040873938</v>
+        <v>405.8142040873936</v>
       </c>
       <c r="P40" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="Q40" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="R40" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="S40" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="T40" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="U40" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="V40" t="n">
-        <v>441.0359919094549</v>
+        <v>441.0359919094548</v>
       </c>
       <c r="W40" t="n">
-        <v>147.7928534353788</v>
+        <v>147.7928534353787</v>
       </c>
       <c r="X40" t="n">
-        <v>31.19533230224777</v>
+        <v>147.7928534353787</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.19533230224777</v>
+        <v>147.7928534353787</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>289.0211588631489</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="C41" t="n">
-        <v>289.0211588631489</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="D41" t="n">
-        <v>150.0152148158476</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="E41" t="n">
-        <v>150.0152148158476</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="F41" t="n">
-        <v>11.00927076854626</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="G41" t="n">
         <v>11.00927076854626</v>
@@ -7411,13 +7411,13 @@
         <v>11.00927076854626</v>
       </c>
       <c r="J41" t="n">
-        <v>11.00927076854626</v>
+        <v>80.66889927570091</v>
       </c>
       <c r="K41" t="n">
-        <v>114.793885645632</v>
+        <v>201.3971998373243</v>
       </c>
       <c r="L41" t="n">
-        <v>251.033611406392</v>
+        <v>251.0336114063921</v>
       </c>
       <c r="M41" t="n">
         <v>344.9003968713945</v>
@@ -7426,37 +7426,37 @@
         <v>445.9148912820997</v>
       </c>
       <c r="O41" t="n">
-        <v>525.0309951984169</v>
+        <v>525.0309951984168</v>
       </c>
       <c r="P41" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="Q41" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="R41" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="S41" t="n">
-        <v>550.4635384273132</v>
+        <v>428.02710291045</v>
       </c>
       <c r="T41" t="n">
-        <v>550.4635384273132</v>
+        <v>289.0211588631488</v>
       </c>
       <c r="U41" t="n">
-        <v>550.4635384273132</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="V41" t="n">
-        <v>428.0271029104503</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="W41" t="n">
-        <v>289.0211588631489</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0211588631489</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="Y41" t="n">
-        <v>289.0211588631489</v>
+        <v>150.0152148158475</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>411.4575943800119</v>
+        <v>11.00927076854626</v>
       </c>
       <c r="C42" t="n">
-        <v>365.2091158822766</v>
+        <v>11.00927076854626</v>
       </c>
       <c r="D42" t="n">
-        <v>365.2091158822766</v>
+        <v>11.00927076854626</v>
       </c>
       <c r="E42" t="n">
-        <v>226.2031718349753</v>
+        <v>11.00927076854626</v>
       </c>
       <c r="F42" t="n">
-        <v>87.197227787674</v>
+        <v>11.00927076854626</v>
       </c>
       <c r="G42" t="n">
-        <v>87.197227787674</v>
+        <v>11.00927076854626</v>
       </c>
       <c r="H42" t="n">
-        <v>87.197227787674</v>
+        <v>11.00927076854626</v>
       </c>
       <c r="I42" t="n">
         <v>11.00927076854626</v>
       </c>
       <c r="J42" t="n">
-        <v>45.82094979719204</v>
+        <v>45.82094979719202</v>
       </c>
       <c r="K42" t="n">
-        <v>62.41478121254868</v>
+        <v>62.41478121254859</v>
       </c>
       <c r="L42" t="n">
-        <v>141.2407355657712</v>
+        <v>141.240735565771</v>
       </c>
       <c r="M42" t="n">
         <v>262.0134959004035</v>
       </c>
       <c r="N42" t="n">
-        <v>398.2532216611636</v>
+        <v>398.2532216611635</v>
       </c>
       <c r="O42" t="n">
-        <v>495.7778039989684</v>
+        <v>495.7778039989682</v>
       </c>
       <c r="P42" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="Q42" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="R42" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="S42" t="n">
-        <v>550.4635384273132</v>
+        <v>428.02710291045</v>
       </c>
       <c r="T42" t="n">
-        <v>550.4635384273132</v>
+        <v>428.02710291045</v>
       </c>
       <c r="U42" t="n">
-        <v>550.4635384273132</v>
+        <v>428.02710291045</v>
       </c>
       <c r="V42" t="n">
-        <v>550.4635384273132</v>
+        <v>289.0211588631488</v>
       </c>
       <c r="W42" t="n">
-        <v>550.4635384273132</v>
+        <v>289.0211588631488</v>
       </c>
       <c r="X42" t="n">
-        <v>550.4635384273132</v>
+        <v>289.0211588631488</v>
       </c>
       <c r="Y42" t="n">
-        <v>550.4635384273132</v>
+        <v>150.0152148158475</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.0152148158476</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="C43" t="n">
-        <v>150.0152148158476</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="D43" t="n">
-        <v>150.0152148158476</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="E43" t="n">
-        <v>150.0152148158476</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="F43" t="n">
-        <v>11.00927076854626</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="G43" t="n">
         <v>11.00927076854626</v>
@@ -7572,49 +7572,49 @@
         <v>11.00927076854626</v>
       </c>
       <c r="K43" t="n">
-        <v>34.09767952964104</v>
+        <v>34.09767952964103</v>
       </c>
       <c r="L43" t="n">
-        <v>116.7301395913066</v>
+        <v>116.7301395913065</v>
       </c>
       <c r="M43" t="n">
-        <v>212.4503724498614</v>
+        <v>212.4503724498613</v>
       </c>
       <c r="N43" t="n">
-        <v>313.9107283758428</v>
+        <v>313.9107283758427</v>
       </c>
       <c r="O43" t="n">
-        <v>385.6281425536923</v>
+        <v>385.6281425536921</v>
       </c>
       <c r="P43" t="n">
-        <v>420.8499303757534</v>
+        <v>420.8499303757533</v>
       </c>
       <c r="Q43" t="n">
-        <v>420.8499303757534</v>
+        <v>420.8499303757533</v>
       </c>
       <c r="R43" t="n">
-        <v>420.8499303757534</v>
+        <v>420.8499303757533</v>
       </c>
       <c r="S43" t="n">
-        <v>420.8499303757534</v>
+        <v>289.0211588631488</v>
       </c>
       <c r="T43" t="n">
-        <v>420.8499303757534</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="U43" t="n">
-        <v>420.8499303757534</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="V43" t="n">
-        <v>420.8499303757534</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="W43" t="n">
-        <v>420.8499303757534</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="X43" t="n">
-        <v>420.8499303757534</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.0211588631489</v>
+        <v>150.0152148158475</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>150.0152148158476</v>
+        <v>133.4457062854093</v>
       </c>
       <c r="C44" t="n">
-        <v>150.0152148158476</v>
+        <v>133.4457062854093</v>
       </c>
       <c r="D44" t="n">
-        <v>150.0152148158476</v>
+        <v>133.4457062854093</v>
       </c>
       <c r="E44" t="n">
-        <v>11.00927076854626</v>
+        <v>133.4457062854093</v>
       </c>
       <c r="F44" t="n">
-        <v>11.00927076854626</v>
+        <v>133.4457062854093</v>
       </c>
       <c r="G44" t="n">
         <v>11.00927076854626</v>
@@ -7648,52 +7648,52 @@
         <v>11.00927076854626</v>
       </c>
       <c r="J44" t="n">
-        <v>80.66889927570094</v>
+        <v>80.66889927570091</v>
       </c>
       <c r="K44" t="n">
-        <v>84.38992552860962</v>
+        <v>201.3971998373243</v>
       </c>
       <c r="L44" t="n">
-        <v>134.0263370976775</v>
+        <v>251.0336114063921</v>
       </c>
       <c r="M44" t="n">
-        <v>248.3680541105399</v>
+        <v>344.9003968713945</v>
       </c>
       <c r="N44" t="n">
-        <v>349.3825485212452</v>
+        <v>445.9148912820997</v>
       </c>
       <c r="O44" t="n">
-        <v>428.4986524375623</v>
+        <v>525.0309951984168</v>
       </c>
       <c r="P44" t="n">
-        <v>453.9311956664586</v>
+        <v>550.463538427313</v>
       </c>
       <c r="Q44" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="R44" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="S44" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="T44" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="U44" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="V44" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="W44" t="n">
-        <v>411.4575943800119</v>
+        <v>411.4575943800118</v>
       </c>
       <c r="X44" t="n">
         <v>272.4516503327105</v>
       </c>
       <c r="Y44" t="n">
-        <v>272.4516503327105</v>
+        <v>133.4457062854093</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>272.4516503327105</v>
+        <v>289.0211588631488</v>
       </c>
       <c r="C45" t="n">
-        <v>272.4516503327105</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="D45" t="n">
-        <v>150.0152148158476</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="E45" t="n">
         <v>11.00927076854626</v>
@@ -7727,52 +7727,52 @@
         <v>11.00927076854626</v>
       </c>
       <c r="J45" t="n">
-        <v>45.82094979719204</v>
+        <v>11.00927076854626</v>
       </c>
       <c r="K45" t="n">
-        <v>62.41478121254868</v>
+        <v>27.60310218390283</v>
       </c>
       <c r="L45" t="n">
-        <v>141.2407355657712</v>
+        <v>125.7737701396436</v>
       </c>
       <c r="M45" t="n">
-        <v>256.8422854860764</v>
+        <v>262.0134959004035</v>
       </c>
       <c r="N45" t="n">
-        <v>393.0820112468365</v>
+        <v>398.2532216611635</v>
       </c>
       <c r="O45" t="n">
-        <v>490.6065935846413</v>
+        <v>495.7778039989682</v>
       </c>
       <c r="P45" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="Q45" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="R45" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="S45" t="n">
-        <v>550.4635384273132</v>
+        <v>550.463538427313</v>
       </c>
       <c r="T45" t="n">
-        <v>411.4575943800119</v>
+        <v>550.463538427313</v>
       </c>
       <c r="U45" t="n">
-        <v>411.4575943800119</v>
+        <v>550.463538427313</v>
       </c>
       <c r="V45" t="n">
-        <v>411.4575943800119</v>
+        <v>550.463538427313</v>
       </c>
       <c r="W45" t="n">
-        <v>411.4575943800119</v>
+        <v>550.463538427313</v>
       </c>
       <c r="X45" t="n">
-        <v>411.4575943800119</v>
+        <v>428.02710291045</v>
       </c>
       <c r="Y45" t="n">
-        <v>272.4516503327105</v>
+        <v>289.0211588631488</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.0152148158476</v>
+        <v>11.00927076854626</v>
       </c>
       <c r="C46" t="n">
         <v>11.00927076854626</v>
@@ -7809,49 +7809,49 @@
         <v>11.00927076854626</v>
       </c>
       <c r="K46" t="n">
-        <v>34.09767952964104</v>
+        <v>34.09767952964103</v>
       </c>
       <c r="L46" t="n">
-        <v>116.7301395913066</v>
+        <v>116.7301395913065</v>
       </c>
       <c r="M46" t="n">
-        <v>212.4503724498614</v>
+        <v>212.4503724498613</v>
       </c>
       <c r="N46" t="n">
-        <v>313.9107283758428</v>
+        <v>313.9107283758427</v>
       </c>
       <c r="O46" t="n">
-        <v>385.6281425536923</v>
+        <v>385.6281425536921</v>
       </c>
       <c r="P46" t="n">
-        <v>420.8499303757534</v>
+        <v>420.8499303757533</v>
       </c>
       <c r="Q46" t="n">
-        <v>420.8499303757534</v>
+        <v>420.8499303757533</v>
       </c>
       <c r="R46" t="n">
-        <v>420.8499303757534</v>
+        <v>420.8499303757533</v>
       </c>
       <c r="S46" t="n">
-        <v>420.8499303757534</v>
+        <v>420.8499303757533</v>
       </c>
       <c r="T46" t="n">
-        <v>420.8499303757534</v>
+        <v>420.8499303757533</v>
       </c>
       <c r="U46" t="n">
-        <v>420.8499303757534</v>
+        <v>289.0211588631488</v>
       </c>
       <c r="V46" t="n">
-        <v>420.8499303757534</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="W46" t="n">
-        <v>420.8499303757534</v>
+        <v>150.0152148158475</v>
       </c>
       <c r="X46" t="n">
-        <v>420.8499303757534</v>
+        <v>11.00927076854626</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.0211588631489</v>
+        <v>11.00927076854626</v>
       </c>
     </row>
   </sheetData>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.21134551316578</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>120.2112348776024</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>29.15491244114402</v>
       </c>
       <c r="N11" t="n">
-        <v>14.30839784347984</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>35.00145916160024</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>39.21134551316578</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>36.2392230717502</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>64.15637160274422</v>
+        <v>98.28040964933206</v>
       </c>
       <c r="Q14" t="n">
         <v>40.07269701746213</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>39.21134551316578</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L17" t="n">
-        <v>270.6444670286918</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>281.4806816124128</v>
       </c>
       <c r="N17" t="n">
-        <v>197.6529541053943</v>
+        <v>274.2607735864504</v>
       </c>
       <c r="O17" t="n">
         <v>246.758517458259</v>
       </c>
       <c r="P17" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>40.07269701746213</v>
+        <v>90.79096472946759</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9251,19 +9251,19 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>220.7181407998327</v>
+        <v>77.03407229900805</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>24.5913680623338</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9409,19 +9409,19 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M20" t="n">
-        <v>281.4806816124134</v>
+        <v>197.6529541053962</v>
       </c>
       <c r="N20" t="n">
-        <v>273.9489359162069</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.5801139476182</v>
+        <v>40.07269701746213</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9482,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>259.5263740818045</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>238.6797318187189</v>
+        <v>77.03407229901015</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>100.2493825621418</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>24.5913680623338</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>46.54367875043768</v>
+        <v>46.54367875043769</v>
       </c>
       <c r="K24" t="n">
-        <v>104.5447044236085</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9728,7 +9728,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>310.6138585746227</v>
+        <v>243.7850894140804</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9889,7 +9889,7 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O26" t="n">
-        <v>246.758517458259</v>
+        <v>246.7585174582591</v>
       </c>
       <c r="P26" t="n">
         <v>208.5255628951208</v>
@@ -9965,10 +9965,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>208.621777263933</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
-        <v>255.2227828913207</v>
+        <v>153.2307015806314</v>
       </c>
       <c r="P27" t="n">
         <v>206.3638740786793</v>
@@ -10123,7 +10123,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N29" t="n">
-        <v>283.4008070189658</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O29" t="n">
         <v>246.758517458259</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.13800114214058</v>
+        <v>34.13800114214083</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10430,7 +10430,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>69.38139227346127</v>
+        <v>69.38139227346095</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>109.5746066315038</v>
+        <v>39.21134551316578</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>95.5719619899631</v>
       </c>
       <c r="L35" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>10.46049074970387</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N35" t="n">
         <v>283.4008070189657</v>
@@ -10603,10 +10603,10 @@
         <v>246.758517458259</v>
       </c>
       <c r="P35" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.5801139476182</v>
+        <v>40.07269701746213</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10664,7 +10664,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>46.54367875043768</v>
+        <v>46.54367875043769</v>
       </c>
       <c r="K36" t="n">
         <v>171.373473584151</v>
@@ -10673,7 +10673,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M36" t="n">
-        <v>166.2301788148101</v>
+        <v>54.69146442431349</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.59136806233377</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>39.21134551316575</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
         <v>270.6444670286918</v>
@@ -10837,13 +10837,13 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O38" t="n">
-        <v>246.758517458259</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>95.57196198996331</v>
+        <v>61.92099098376934</v>
       </c>
       <c r="Q38" t="n">
-        <v>40.07269701746208</v>
+        <v>40.07269701746213</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10901,7 +10901,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>46.54367875043768</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
         <v>171.373473584151</v>
@@ -10910,19 +10910,19 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>131.0668666646628</v>
       </c>
       <c r="N39" t="n">
-        <v>252.3257691712688</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>169.127192534862</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>24.59136806233377</v>
+        <v>24.5913680623338</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>39.21134551316575</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>101.0743319436132</v>
+        <v>118.1891659683987</v>
       </c>
       <c r="L41" t="n">
-        <v>87.47809514312331</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>40.07269701746208</v>
+        <v>40.07269701746213</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>5.223444862956683</v>
+        <v>5.223444862956882</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>24.59136806233377</v>
+        <v>24.5913680623338</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11299,13 +11299,13 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>118.1891659683987</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>20.68174903824234</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>40.07269701746213</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11375,16 +11375,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>46.54367875043769</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>19.5401147500185</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>20.84664226308564</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>5.223444862956683</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>24.59136806233377</v>
+        <v>24.5913680623338</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23308,22 +23308,22 @@
         <v>85.97756065788511</v>
       </c>
       <c r="S11" t="n">
-        <v>64.04065731297982</v>
+        <v>188.0105045672576</v>
       </c>
       <c r="T11" t="n">
-        <v>90.90680057729415</v>
+        <v>105.6840063700041</v>
       </c>
       <c r="U11" t="n">
         <v>126.0419989361539</v>
       </c>
       <c r="V11" t="n">
-        <v>211.6871421475842</v>
+        <v>196.9099363548743</v>
       </c>
       <c r="W11" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>235.8128670404284</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23342,7 +23342,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>119.9134458123692</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -23351,10 +23351,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>23.84715060887501</v>
+        <v>38.62435640158496</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>116.7767975749586</v>
       </c>
       <c r="I12" t="n">
         <v>75.42607744893647</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.1268218766776</v>
       </c>
       <c r="S12" t="n">
-        <v>50.3910581026004</v>
+        <v>174.3609053568781</v>
       </c>
       <c r="T12" t="n">
         <v>211.2320180092416</v>
@@ -23396,16 +23396,16 @@
         <v>237.1670427461337</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>116.6790736611245</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>142.7347363227339</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>99.41443887974786</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>53.64707341069034</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -23430,16 +23430,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9231007044182</v>
+        <v>43.95325345014048</v>
       </c>
       <c r="H13" t="n">
         <v>158.910166837993</v>
       </c>
       <c r="I13" t="n">
-        <v>17.49633600637017</v>
+        <v>141.4661832606479</v>
       </c>
       <c r="J13" t="n">
-        <v>31.42532878729614</v>
+        <v>65.25804003559784</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>62.09737445818803</v>
       </c>
       <c r="R13" t="n">
-        <v>44.49305294096024</v>
+        <v>168.462900195238</v>
       </c>
       <c r="S13" t="n">
-        <v>97.91545633934331</v>
+        <v>221.885303593621</v>
       </c>
       <c r="T13" t="n">
         <v>220.4387685895494</v>
@@ -23481,10 +23481,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X13" t="n">
-        <v>221.9194554082425</v>
+        <v>188.0867441599409</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.1412728141684</v>
+        <v>93.17142555989066</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>228.5795181806595</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
@@ -23548,16 +23548,16 @@
         <v>188.0105045672576</v>
       </c>
       <c r="T14" t="n">
-        <v>214.8766478315719</v>
+        <v>90.90680057729413</v>
       </c>
       <c r="U14" t="n">
         <v>250.0118461904316</v>
       </c>
       <c r="V14" t="n">
-        <v>211.6871421475842</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>213.9266165714891</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
         <v>235.8128670404284</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.1268218766776</v>
       </c>
       <c r="S15" t="n">
-        <v>50.3910581026004</v>
+        <v>65.16826389531036</v>
       </c>
       <c r="T15" t="n">
-        <v>87.26217075496389</v>
+        <v>211.2320180092416</v>
       </c>
       <c r="U15" t="n">
         <v>237.1670427461337</v>
@@ -23636,13 +23636,13 @@
         <v>116.6790736611245</v>
       </c>
       <c r="W15" t="n">
-        <v>234.6387639921214</v>
+        <v>142.7347363227339</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>99.41443887974786</v>
       </c>
     </row>
     <row r="16">
@@ -23658,13 +23658,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>21.21280299643296</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>14.9570349641689</v>
       </c>
       <c r="G16" t="n">
         <v>167.9231007044182</v>
@@ -23673,7 +23673,7 @@
         <v>158.910166837993</v>
       </c>
       <c r="I16" t="n">
-        <v>141.4661832606479</v>
+        <v>107.6334720123463</v>
       </c>
       <c r="J16" t="n">
         <v>65.25804003559784</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>62.09737445818803</v>
       </c>
       <c r="R16" t="n">
-        <v>44.49305294096023</v>
+        <v>168.462900195238</v>
       </c>
       <c r="S16" t="n">
-        <v>97.91545633934329</v>
+        <v>221.885303593621</v>
       </c>
       <c r="T16" t="n">
-        <v>124.7335845451581</v>
+        <v>220.4387685895494</v>
       </c>
       <c r="U16" t="n">
         <v>288.6141383745983</v>
       </c>
       <c r="V16" t="n">
-        <v>245.1090151844499</v>
+        <v>121.1391679301721</v>
       </c>
       <c r="W16" t="n">
         <v>290.3107070893353</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>37.8293570663019</v>
       </c>
       <c r="C17" t="n">
-        <v>174.2146764859324</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>26.90363321446699</v>
       </c>
       <c r="G17" t="n">
-        <v>417.1044816849221</v>
+        <v>40.80886525937564</v>
       </c>
       <c r="H17" t="n">
         <v>329.266232810535</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>174.1716362309285</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.989950992903346</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>36.55003031273657</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.8169978631527</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>116.7767975749586</v>
       </c>
       <c r="I18" t="n">
         <v>75.42607744893647</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3.299765722032546</v>
       </c>
       <c r="S18" t="n">
-        <v>174.3609053568781</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>211.2320180092416</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>141.676141212225</v>
       </c>
       <c r="F19" t="n">
-        <v>60.01789674972302</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.9231007044182</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>141.4661832606479</v>
+        <v>116.5535524957486</v>
       </c>
       <c r="J19" t="n">
         <v>65.25804003559784</v>
@@ -23955,7 +23955,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>217.1412728141684</v>
@@ -23974,16 +23974,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>144.4621892150303</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.1044816849221</v>
+        <v>40.80886525937512</v>
       </c>
       <c r="H20" t="n">
         <v>329.266232810535</v>
@@ -24022,22 +24022,22 @@
         <v>188.0105045672576</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.8766478315719</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0118461904316</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>234.633746488051</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>5.989950992902891</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>103.430494302983</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.8169978631527</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>75.42607744893647</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.1268218766776</v>
       </c>
       <c r="S21" t="n">
-        <v>174.3609053568781</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>211.2320180092416</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>237.1670427461337</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.29492463182615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24186,10 +24186,10 @@
         <v>288.6141383745983</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>129.6774692626503</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24208,25 +24208,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>15.54875138945437</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>329.266232810535</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>174.1716362309285</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>188.0105045672576</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>214.8766478315719</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0118461904316</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>267.9125629070485</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>75.42607744893647</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.1268218766776</v>
       </c>
       <c r="S24" t="n">
-        <v>174.3609053568781</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.2320180092416</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1670427461337</v>
+        <v>118.5369549785261</v>
       </c>
       <c r="V24" t="n">
-        <v>224.9016185815333</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>20.04342067024749</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
         <v>167.9231007044182</v>
@@ -24387,7 +24387,7 @@
         <v>141.4661832606479</v>
       </c>
       <c r="J25" t="n">
-        <v>65.25804003559783</v>
+        <v>65.25804003559784</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>62.09737445818801</v>
+        <v>62.09737445818803</v>
       </c>
       <c r="R25" t="n">
         <v>168.462900195238</v>
@@ -24423,10 +24423,10 @@
         <v>288.6141383745983</v>
       </c>
       <c r="V25" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>129.6774692626503</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24445,22 +24445,22 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>69.08837539566065</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.1044816849221</v>
+        <v>235.4304170406451</v>
       </c>
       <c r="H26" t="n">
-        <v>329.266232810535</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>174.1716362309285</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.97756065788511</v>
       </c>
       <c r="S26" t="n">
         <v>188.0105045672576</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0118461904316</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>116.7767975749586</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>27.29610955620189</v>
+        <v>75.42607744893647</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.1268218766776</v>
       </c>
       <c r="S27" t="n">
-        <v>174.3609053568781</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>211.2320180092416</v>
+        <v>139.9458884255322</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1670427461337</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -24621,10 +24621,10 @@
         <v>158.910166837993</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>141.4661832606479</v>
       </c>
       <c r="J28" t="n">
-        <v>65.25804003559783</v>
+        <v>65.25804003559784</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.09737445818801</v>
+        <v>62.09737445818803</v>
       </c>
       <c r="R28" t="n">
         <v>168.462900195238</v>
@@ -24663,13 +24663,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>221.9194554082425</v>
+        <v>106.4879094864429</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.4821237286493</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>350.2054973811788</v>
@@ -24688,19 +24688,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>185.5430839504562</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>174.1716362309285</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>107.3780062474482</v>
+        <v>214.8766478315719</v>
       </c>
       <c r="U29" t="n">
         <v>250.0118461904316</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
@@ -24748,7 +24748,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.8169978631527</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>116.7767975749586</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>75.42607744893647</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.12682187667758</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.2320180092416</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>35.86178380925737</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>17.81838577043246</v>
       </c>
     </row>
     <row r="31">
@@ -24858,10 +24858,10 @@
         <v>158.910166837993</v>
       </c>
       <c r="I31" t="n">
-        <v>31.5422449385366</v>
+        <v>141.4661832606479</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>65.25804003559784</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>62.09737445818803</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>168.462900195238</v>
       </c>
       <c r="S31" t="n">
         <v>221.885303593621</v>
@@ -24897,10 +24897,10 @@
         <v>288.6141383745983</v>
       </c>
       <c r="V31" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>129.6774692626503</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -24922,22 +24922,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>124.5824795217073</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.1044816849221</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.266232810535</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>75.62417139173429</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>188.0105045672576</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>214.8766478315719</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0118461904316</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -24985,7 +24985,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>147.8169978631527</v>
+        <v>132.3666246279323</v>
       </c>
       <c r="H33" t="n">
         <v>116.7767975749586</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>75.42607744893647</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>211.2320180092416</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>41.1847602867057</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>83.5144988765163</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -25098,7 +25098,7 @@
         <v>141.4661832606479</v>
       </c>
       <c r="J34" t="n">
-        <v>65.25804003559783</v>
+        <v>65.25804003559784</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>62.09737445818801</v>
+        <v>62.09737445818803</v>
       </c>
       <c r="R34" t="n">
         <v>168.462900195238</v>
@@ -25131,13 +25131,13 @@
         <v>220.4387685895494</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6141383745983</v>
+        <v>173.1825924527986</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>238.5196114935475</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>27.16282790682499</v>
+        <v>27.1628279068251</v>
       </c>
       <c r="H35" t="n">
         <v>329.266232810535</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>45.9719565356402</v>
       </c>
       <c r="S35" t="n">
         <v>188.0105045672576</v>
@@ -25210,13 +25210,13 @@
         <v>214.8766478315719</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0118461904316</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>164.7796790174725</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>140.6158097674356</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>116.7767975749586</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>75.42607744893647</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.1268218766776</v>
       </c>
       <c r="S36" t="n">
-        <v>174.3609053568781</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1670427461337</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25317,16 +25317,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>29.75110432891111</v>
       </c>
       <c r="E37" t="n">
-        <v>42.78387112395478</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.9231007044182</v>
       </c>
       <c r="H37" t="n">
         <v>158.910166837993</v>
@@ -25335,7 +25335,7 @@
         <v>141.4661832606479</v>
       </c>
       <c r="J37" t="n">
-        <v>65.25804003559783</v>
+        <v>65.25804003559784</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>62.09737445818801</v>
+        <v>62.09737445818803</v>
       </c>
       <c r="R37" t="n">
         <v>168.462900195238</v>
@@ -25374,7 +25374,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25399,19 +25399,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>13.25759586191634</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>27.16282790682499</v>
+        <v>417.1044816849221</v>
       </c>
       <c r="H38" t="n">
-        <v>20.04745280605015</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>103.6994928342168</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>85.97756065788508</v>
+        <v>85.97756065788511</v>
       </c>
       <c r="S38" t="n">
         <v>188.0105045672576</v>
@@ -25447,7 +25447,7 @@
         <v>214.8766478315719</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0118461904316</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25456,10 +25456,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25472,22 +25472,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>65.46779770739377</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>166.9634742372071</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>116.7767975749586</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.1268218766776</v>
       </c>
       <c r="S39" t="n">
         <v>174.3609053568781</v>
@@ -25532,7 +25532,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -25563,7 +25563,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9231007044182</v>
+        <v>52.49155478261864</v>
       </c>
       <c r="H40" t="n">
         <v>158.910166837993</v>
@@ -25572,7 +25572,7 @@
         <v>141.4661832606479</v>
       </c>
       <c r="J40" t="n">
-        <v>65.25804003559783</v>
+        <v>65.25804003559784</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>62.09737445818801</v>
+        <v>62.09737445818803</v>
       </c>
       <c r="R40" t="n">
         <v>168.462900195238</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>106.4879094864428</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -25633,16 +25633,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>200.156275035399</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>265.5833650331851</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.1044816849221</v>
+        <v>279.4885970780939</v>
       </c>
       <c r="H41" t="n">
         <v>329.266232810535</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>85.97756065788508</v>
+        <v>85.97756065788511</v>
       </c>
       <c r="S41" t="n">
-        <v>188.0105045672576</v>
+        <v>66.79843340556323</v>
       </c>
       <c r="T41" t="n">
-        <v>214.8766478315719</v>
+        <v>77.26076322474364</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0118461904316</v>
+        <v>112.3959615836034</v>
       </c>
       <c r="V41" t="n">
-        <v>199.6677124474577</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>200.2805792189386</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39.13460979083743</v>
+        <v>39.13460979083749</v>
       </c>
       <c r="C42" t="n">
-        <v>141.732157811608</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>34.21168723297137</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>21.20755451310004</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>147.8169978631527</v>
@@ -25727,7 +25727,7 @@
         <v>116.7767975749586</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>75.42607744893647</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.12682187667758</v>
+        <v>77.1268218766776</v>
       </c>
       <c r="S42" t="n">
-        <v>174.3609053568781</v>
+        <v>53.14883419518381</v>
       </c>
       <c r="T42" t="n">
         <v>211.2320180092416</v>
@@ -25766,7 +25766,7 @@
         <v>237.1670427461337</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>103.033036308574</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
@@ -25775,7 +25775,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>85.76840152719737</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.00103605813979</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -25797,10 +25797,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>1.310997611618347</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9231007044182</v>
+        <v>30.30721609758999</v>
       </c>
       <c r="H43" t="n">
         <v>158.910166837993</v>
@@ -25809,7 +25809,7 @@
         <v>141.4661832606479</v>
       </c>
       <c r="J43" t="n">
-        <v>65.25804003559783</v>
+        <v>65.25804003559784</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>62.09737445818801</v>
+        <v>62.09737445818803</v>
       </c>
       <c r="R43" t="n">
         <v>168.462900195238</v>
       </c>
       <c r="S43" t="n">
-        <v>221.885303593621</v>
+        <v>91.37481979614262</v>
       </c>
       <c r="T43" t="n">
-        <v>220.4387685895494</v>
+        <v>82.82288398272118</v>
       </c>
       <c r="U43" t="n">
         <v>288.6141383745983</v>
@@ -25854,7 +25854,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.63078901668993</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>252.875169216139</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25873,13 +25873,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>233.8630274548078</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.1044816849221</v>
+        <v>295.8924105232277</v>
       </c>
       <c r="H44" t="n">
         <v>329.266232810535</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>85.97756065788508</v>
+        <v>85.97756065788511</v>
       </c>
       <c r="S44" t="n">
         <v>188.0105045672576</v>
@@ -25930,10 +25930,10 @@
         <v>200.2805792189386</v>
       </c>
       <c r="X44" t="n">
-        <v>222.1668296878778</v>
+        <v>222.1668296878779</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>244.6696828116216</v>
       </c>
     </row>
     <row r="45">
@@ -25946,13 +25946,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>49.90226691753767</v>
       </c>
       <c r="D45" t="n">
-        <v>37.96024391488422</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>34.21168723297137</v>
+        <v>34.21168723297143</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -25964,7 +25964,7 @@
         <v>116.7767975749586</v>
       </c>
       <c r="I45" t="n">
-        <v>75.42607744893645</v>
+        <v>75.42607744893647</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.12682187667758</v>
+        <v>77.1268218766776</v>
       </c>
       <c r="S45" t="n">
         <v>174.3609053568781</v>
       </c>
       <c r="T45" t="n">
-        <v>73.61613340241334</v>
+        <v>211.2320180092416</v>
       </c>
       <c r="U45" t="n">
         <v>237.1670427461337</v>
@@ -26009,10 +26009,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>96.10084327777628</v>
       </c>
       <c r="Y45" t="n">
-        <v>85.76840152719731</v>
+        <v>85.76840152719737</v>
       </c>
     </row>
     <row r="46">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.00103605813979</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>28.84129636514405</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
@@ -26046,7 +26046,7 @@
         <v>141.4661832606479</v>
       </c>
       <c r="J46" t="n">
-        <v>65.25804003559783</v>
+        <v>65.25804003559784</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>62.09737445818801</v>
+        <v>62.09737445818803</v>
       </c>
       <c r="R46" t="n">
         <v>168.462900195238</v>
@@ -26079,19 +26079,19 @@
         <v>220.4387685895494</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6141383745983</v>
+        <v>158.1036545771198</v>
       </c>
       <c r="V46" t="n">
-        <v>245.1090151844499</v>
+        <v>107.4931305776217</v>
       </c>
       <c r="W46" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
-        <v>221.9194554082425</v>
+        <v>84.30357080141428</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.63078901668993</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>403637.2472564278</v>
+        <v>403637.247256428</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>403637.2472564278</v>
+        <v>403637.2472564279</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>658441.8892865198</v>
+        <v>658441.8892865197</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>658441.88928652</v>
+        <v>658441.8892865197</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>658441.88928652</v>
+        <v>658441.8892865197</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>577379.4774260682</v>
+        <v>577379.4774260683</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>412386.6515366191</v>
+        <v>412386.6515366189</v>
       </c>
     </row>
     <row r="16">
@@ -26316,37 +26316,37 @@
         <v>595304.0967441105</v>
       </c>
       <c r="C2" t="n">
-        <v>595304.0967441105</v>
+        <v>595304.0967441103</v>
       </c>
       <c r="D2" t="n">
         <v>595304.0967441103</v>
       </c>
       <c r="E2" t="n">
-        <v>245767.9800963121</v>
+        <v>245767.9800963122</v>
       </c>
       <c r="F2" t="n">
         <v>245767.9800963121</v>
       </c>
       <c r="G2" t="n">
-        <v>326407.2284320504</v>
+        <v>326407.2284320505</v>
       </c>
       <c r="H2" t="n">
-        <v>326407.2284320507</v>
+        <v>326407.2284320506</v>
       </c>
       <c r="I2" t="n">
+        <v>370387.046784333</v>
+      </c>
+      <c r="J2" t="n">
+        <v>370387.046784333</v>
+      </c>
+      <c r="K2" t="n">
+        <v>370387.046784333</v>
+      </c>
+      <c r="L2" t="n">
         <v>370387.0467843328</v>
       </c>
-      <c r="J2" t="n">
-        <v>370387.0467843331</v>
-      </c>
-      <c r="K2" t="n">
-        <v>370387.0467843331</v>
-      </c>
-      <c r="L2" t="n">
-        <v>370387.046784333</v>
-      </c>
       <c r="M2" t="n">
-        <v>330768.2819958034</v>
+        <v>330768.2819958036</v>
       </c>
       <c r="N2" t="n">
         <v>330768.2819958036</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>69158.70844330722</v>
+        <v>69158.7084433072</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>36594.95365053225</v>
+        <v>36594.95365053227</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>12333.71525796318</v>
       </c>
       <c r="G4" t="n">
-        <v>48910.33076214477</v>
+        <v>48910.33076214476</v>
       </c>
       <c r="H4" t="n">
-        <v>48910.33076214486</v>
+        <v>48910.33076214485</v>
       </c>
       <c r="I4" t="n">
-        <v>68953.50887052095</v>
+        <v>68953.50887052096</v>
       </c>
       <c r="J4" t="n">
-        <v>68953.50887052095</v>
+        <v>68953.50887052096</v>
       </c>
       <c r="K4" t="n">
-        <v>68953.50887052095</v>
+        <v>68953.50887052096</v>
       </c>
       <c r="L4" t="n">
         <v>68953.50887052095</v>
       </c>
       <c r="M4" t="n">
+        <v>50897.81903729663</v>
+      </c>
+      <c r="N4" t="n">
         <v>50897.81903729664</v>
       </c>
-      <c r="N4" t="n">
-        <v>50897.81903729663</v>
-      </c>
       <c r="O4" t="n">
-        <v>14147.6259379906</v>
+        <v>14147.62593799061</v>
       </c>
       <c r="P4" t="n">
-        <v>14147.6259379906</v>
+        <v>14147.62593799061</v>
       </c>
     </row>
     <row r="5">
@@ -26499,19 +26499,19 @@
         <v>42852.72981191259</v>
       </c>
       <c r="L5" t="n">
-        <v>42852.72981191259</v>
+        <v>42852.72981191258</v>
       </c>
       <c r="M5" t="n">
-        <v>35315.36309885251</v>
+        <v>35315.3630988525</v>
       </c>
       <c r="N5" t="n">
-        <v>35315.36309885251</v>
+        <v>35315.3630988525</v>
       </c>
       <c r="O5" t="n">
-        <v>19973.95633323937</v>
+        <v>19973.95633323936</v>
       </c>
       <c r="P5" t="n">
-        <v>19973.95633323937</v>
+        <v>19973.95633323936</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115576.8518955552</v>
+        <v>115532.1880535032</v>
       </c>
       <c r="C6" t="n">
-        <v>115576.8518955552</v>
+        <v>115532.1880535032</v>
       </c>
       <c r="D6" t="n">
-        <v>115576.851895555</v>
+        <v>115532.1880535031</v>
       </c>
       <c r="E6" t="n">
-        <v>-250478.2023908339</v>
+        <v>-263468.6483309523</v>
       </c>
       <c r="F6" t="n">
-        <v>214289.9875761447</v>
+        <v>201299.5416360261</v>
       </c>
       <c r="G6" t="n">
-        <v>173852.505198781</v>
+        <v>163848.6980859122</v>
       </c>
       <c r="H6" t="n">
-        <v>243011.2136420883</v>
+        <v>233007.4065292193</v>
       </c>
       <c r="I6" t="n">
-        <v>221985.854451367</v>
+        <v>213610.9294996938</v>
       </c>
       <c r="J6" t="n">
-        <v>258580.8081018995</v>
+        <v>250205.8831502261</v>
       </c>
       <c r="K6" t="n">
-        <v>258580.8081018996</v>
+        <v>250205.8831502261</v>
       </c>
       <c r="L6" t="n">
-        <v>258580.8081018994</v>
+        <v>250205.883150226</v>
       </c>
       <c r="M6" t="n">
-        <v>244555.0998596542</v>
+        <v>234712.8132491468</v>
       </c>
       <c r="N6" t="n">
-        <v>244555.0998596544</v>
+        <v>234712.8132491468</v>
       </c>
       <c r="O6" t="n">
-        <v>216007.4513888352</v>
+        <v>203178.5259510778</v>
       </c>
       <c r="P6" t="n">
-        <v>216007.4513888351</v>
+        <v>203178.5259510778</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>532.4270894102845</v>
       </c>
       <c r="I3" t="n">
-        <v>532.4270894102846</v>
+        <v>532.4270894102845</v>
       </c>
       <c r="J3" t="n">
-        <v>532.4270894102846</v>
+        <v>532.4270894102845</v>
       </c>
       <c r="K3" t="n">
-        <v>532.4270894102846</v>
+        <v>532.4270894102845</v>
       </c>
       <c r="L3" t="n">
-        <v>532.4270894102846</v>
+        <v>532.4270894102845</v>
       </c>
       <c r="M3" t="n">
-        <v>532.4270894102846</v>
+        <v>532.4270894102845</v>
       </c>
       <c r="N3" t="n">
-        <v>532.4270894102846</v>
+        <v>532.4270894102845</v>
       </c>
       <c r="O3" t="n">
-        <v>532.4270894102846</v>
+        <v>532.4270894102845</v>
       </c>
       <c r="P3" t="n">
-        <v>532.4270894102846</v>
+        <v>532.4270894102845</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>123.9698472542777</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="F4" t="n">
         <v>123.9698472542778</v>
@@ -26807,7 +26807,7 @@
         <v>376.2956164255465</v>
       </c>
       <c r="H4" t="n">
-        <v>376.2956164255471</v>
+        <v>376.295616425547</v>
       </c>
       <c r="I4" t="n">
         <v>513.9115010323749</v>
@@ -26819,19 +26819,19 @@
         <v>513.9115010323749</v>
       </c>
       <c r="L4" t="n">
-        <v>513.9115010323749</v>
+        <v>513.9115010323748</v>
       </c>
       <c r="M4" t="n">
-        <v>389.9416537780971</v>
+        <v>389.941653778097</v>
       </c>
       <c r="N4" t="n">
-        <v>389.9416537780971</v>
+        <v>389.941653778097</v>
       </c>
       <c r="O4" t="n">
-        <v>137.6158846068283</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="P4" t="n">
-        <v>137.6158846068283</v>
+        <v>137.6158846068282</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>252.3257691712688</v>
+        <v>252.3257691712687</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>252.3257691712688</v>
+        <v>252.3257691712687</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.140410409689585</v>
+        <v>2.140410409689584</v>
       </c>
       <c r="H23" t="n">
         <v>21.92047810823346</v>
       </c>
       <c r="I23" t="n">
-        <v>82.51817231955779</v>
+        <v>82.51817231955778</v>
       </c>
       <c r="J23" t="n">
         <v>181.6646580093915</v>
@@ -32715,31 +32715,31 @@
         <v>272.2682306515517</v>
       </c>
       <c r="L23" t="n">
-        <v>337.7728157270894</v>
+        <v>337.7728157270893</v>
       </c>
       <c r="M23" t="n">
         <v>375.8373393504065</v>
       </c>
       <c r="N23" t="n">
-        <v>381.9187804269371</v>
+        <v>381.918780426937</v>
       </c>
       <c r="O23" t="n">
         <v>360.6350744155862</v>
       </c>
       <c r="P23" t="n">
-        <v>307.7936924263746</v>
+        <v>307.7936924263745</v>
       </c>
       <c r="Q23" t="n">
-        <v>231.1402446293663</v>
+        <v>231.1402446293662</v>
       </c>
       <c r="R23" t="n">
-        <v>134.4525553976635</v>
+        <v>134.4525553976634</v>
       </c>
       <c r="S23" t="n">
         <v>48.77460221080145</v>
       </c>
       <c r="T23" t="n">
-        <v>9.369646568416162</v>
+        <v>9.36964656841616</v>
       </c>
       <c r="U23" t="n">
         <v>0.1712328327751667</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.145220531939103</v>
+        <v>1.145220531939102</v>
       </c>
       <c r="H24" t="n">
         <v>11.06041934793818</v>
@@ -32791,37 +32791,37 @@
         <v>108.1982257828957</v>
       </c>
       <c r="K24" t="n">
-        <v>184.9280014228156</v>
+        <v>184.9280014228155</v>
       </c>
       <c r="L24" t="n">
-        <v>248.6585194458127</v>
+        <v>248.6585194458126</v>
       </c>
       <c r="M24" t="n">
         <v>290.172763728605</v>
       </c>
       <c r="N24" t="n">
-        <v>297.852773348495</v>
+        <v>297.8527733484949</v>
       </c>
       <c r="O24" t="n">
-        <v>272.477097351318</v>
+        <v>272.4770973513179</v>
       </c>
       <c r="P24" t="n">
-        <v>218.6868926296696</v>
+        <v>218.6868926296695</v>
       </c>
       <c r="Q24" t="n">
         <v>146.1863963226125</v>
       </c>
       <c r="R24" t="n">
-        <v>71.10413092162256</v>
+        <v>71.10413092162254</v>
       </c>
       <c r="S24" t="n">
-        <v>21.27196909106183</v>
+        <v>21.27196909106182</v>
       </c>
       <c r="T24" t="n">
-        <v>4.616042407245767</v>
+        <v>4.616042407245766</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0753434560486252</v>
+        <v>0.07534345604862519</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,28 +32858,28 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9601144235267426</v>
+        <v>0.9601144235267424</v>
       </c>
       <c r="H25" t="n">
-        <v>8.536290056446862</v>
+        <v>8.536290056446861</v>
       </c>
       <c r="I25" t="n">
         <v>28.8732592093315</v>
       </c>
       <c r="J25" t="n">
-        <v>67.88008974334069</v>
+        <v>67.88008974334068</v>
       </c>
       <c r="K25" t="n">
-        <v>111.5478393879252</v>
+        <v>111.5478393879251</v>
       </c>
       <c r="L25" t="n">
         <v>142.7428298396032</v>
       </c>
       <c r="M25" t="n">
-        <v>150.5023000442875</v>
+        <v>150.5023000442874</v>
       </c>
       <c r="N25" t="n">
-        <v>146.9236917384152</v>
+        <v>146.9236917384151</v>
       </c>
       <c r="O25" t="n">
         <v>135.7078096090345</v>
@@ -32888,19 +32888,19 @@
         <v>116.1214753690889</v>
       </c>
       <c r="Q25" t="n">
-        <v>80.39649050095296</v>
+        <v>80.39649050095295</v>
       </c>
       <c r="R25" t="n">
-        <v>43.1702358069388</v>
+        <v>43.17023580693878</v>
       </c>
       <c r="S25" t="n">
         <v>16.73217590818877</v>
       </c>
       <c r="T25" t="n">
-        <v>4.102307082341535</v>
+        <v>4.102307082341534</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05236987764691329</v>
+        <v>0.05236987764691328</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.140410409689585</v>
+        <v>2.140410409689584</v>
       </c>
       <c r="H26" t="n">
         <v>21.92047810823346</v>
       </c>
       <c r="I26" t="n">
-        <v>82.51817231955779</v>
+        <v>82.51817231955778</v>
       </c>
       <c r="J26" t="n">
         <v>181.6646580093915</v>
@@ -32952,31 +32952,31 @@
         <v>272.2682306515517</v>
       </c>
       <c r="L26" t="n">
-        <v>337.7728157270894</v>
+        <v>337.7728157270893</v>
       </c>
       <c r="M26" t="n">
         <v>375.8373393504065</v>
       </c>
       <c r="N26" t="n">
-        <v>381.9187804269371</v>
+        <v>381.918780426937</v>
       </c>
       <c r="O26" t="n">
         <v>360.6350744155862</v>
       </c>
       <c r="P26" t="n">
-        <v>307.7936924263746</v>
+        <v>307.7936924263745</v>
       </c>
       <c r="Q26" t="n">
-        <v>231.1402446293663</v>
+        <v>231.1402446293662</v>
       </c>
       <c r="R26" t="n">
-        <v>134.4525553976635</v>
+        <v>134.4525553976634</v>
       </c>
       <c r="S26" t="n">
         <v>48.77460221080145</v>
       </c>
       <c r="T26" t="n">
-        <v>9.369646568416162</v>
+        <v>9.36964656841616</v>
       </c>
       <c r="U26" t="n">
         <v>0.1712328327751667</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.145220531939103</v>
+        <v>1.145220531939102</v>
       </c>
       <c r="H27" t="n">
         <v>11.06041934793818</v>
@@ -33028,37 +33028,37 @@
         <v>108.1982257828957</v>
       </c>
       <c r="K27" t="n">
-        <v>184.9280014228156</v>
+        <v>184.9280014228155</v>
       </c>
       <c r="L27" t="n">
-        <v>248.6585194458127</v>
+        <v>248.6585194458126</v>
       </c>
       <c r="M27" t="n">
         <v>290.172763728605</v>
       </c>
       <c r="N27" t="n">
-        <v>297.852773348495</v>
+        <v>297.8527733484949</v>
       </c>
       <c r="O27" t="n">
-        <v>272.477097351318</v>
+        <v>272.4770973513179</v>
       </c>
       <c r="P27" t="n">
-        <v>218.6868926296696</v>
+        <v>218.6868926296695</v>
       </c>
       <c r="Q27" t="n">
         <v>146.1863963226125</v>
       </c>
       <c r="R27" t="n">
-        <v>71.10413092162256</v>
+        <v>71.10413092162254</v>
       </c>
       <c r="S27" t="n">
-        <v>21.27196909106183</v>
+        <v>21.27196909106182</v>
       </c>
       <c r="T27" t="n">
-        <v>4.616042407245767</v>
+        <v>4.616042407245766</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0753434560486252</v>
+        <v>0.07534345604862519</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,28 +33095,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9601144235267426</v>
+        <v>0.9601144235267424</v>
       </c>
       <c r="H28" t="n">
-        <v>8.536290056446862</v>
+        <v>8.536290056446861</v>
       </c>
       <c r="I28" t="n">
         <v>28.8732592093315</v>
       </c>
       <c r="J28" t="n">
-        <v>67.88008974334069</v>
+        <v>67.88008974334068</v>
       </c>
       <c r="K28" t="n">
-        <v>111.5478393879252</v>
+        <v>111.5478393879251</v>
       </c>
       <c r="L28" t="n">
         <v>142.7428298396032</v>
       </c>
       <c r="M28" t="n">
-        <v>150.5023000442875</v>
+        <v>150.5023000442874</v>
       </c>
       <c r="N28" t="n">
-        <v>146.9236917384152</v>
+        <v>146.9236917384151</v>
       </c>
       <c r="O28" t="n">
         <v>135.7078096090345</v>
@@ -33125,19 +33125,19 @@
         <v>116.1214753690889</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.39649050095296</v>
+        <v>80.39649050095295</v>
       </c>
       <c r="R28" t="n">
-        <v>43.1702358069388</v>
+        <v>43.17023580693878</v>
       </c>
       <c r="S28" t="n">
         <v>16.73217590818877</v>
       </c>
       <c r="T28" t="n">
-        <v>4.102307082341535</v>
+        <v>4.102307082341534</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05236987764691329</v>
+        <v>0.05236987764691328</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.140410409689585</v>
+        <v>2.140410409689584</v>
       </c>
       <c r="H29" t="n">
         <v>21.92047810823346</v>
       </c>
       <c r="I29" t="n">
-        <v>82.51817231955779</v>
+        <v>82.51817231955778</v>
       </c>
       <c r="J29" t="n">
         <v>181.6646580093915</v>
@@ -33189,31 +33189,31 @@
         <v>272.2682306515517</v>
       </c>
       <c r="L29" t="n">
-        <v>337.7728157270894</v>
+        <v>337.7728157270893</v>
       </c>
       <c r="M29" t="n">
         <v>375.8373393504065</v>
       </c>
       <c r="N29" t="n">
-        <v>381.9187804269371</v>
+        <v>381.918780426937</v>
       </c>
       <c r="O29" t="n">
         <v>360.6350744155862</v>
       </c>
       <c r="P29" t="n">
-        <v>307.7936924263746</v>
+        <v>307.7936924263745</v>
       </c>
       <c r="Q29" t="n">
-        <v>231.1402446293663</v>
+        <v>231.1402446293662</v>
       </c>
       <c r="R29" t="n">
-        <v>134.4525553976635</v>
+        <v>134.4525553976634</v>
       </c>
       <c r="S29" t="n">
         <v>48.77460221080145</v>
       </c>
       <c r="T29" t="n">
-        <v>9.369646568416162</v>
+        <v>9.36964656841616</v>
       </c>
       <c r="U29" t="n">
         <v>0.1712328327751667</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.145220531939103</v>
+        <v>1.145220531939102</v>
       </c>
       <c r="H30" t="n">
         <v>11.06041934793818</v>
@@ -33265,37 +33265,37 @@
         <v>108.1982257828957</v>
       </c>
       <c r="K30" t="n">
-        <v>184.9280014228156</v>
+        <v>184.9280014228155</v>
       </c>
       <c r="L30" t="n">
-        <v>248.6585194458127</v>
+        <v>248.6585194458126</v>
       </c>
       <c r="M30" t="n">
         <v>290.172763728605</v>
       </c>
       <c r="N30" t="n">
-        <v>297.852773348495</v>
+        <v>297.8527733484949</v>
       </c>
       <c r="O30" t="n">
-        <v>272.477097351318</v>
+        <v>272.4770973513179</v>
       </c>
       <c r="P30" t="n">
-        <v>218.6868926296696</v>
+        <v>218.6868926296695</v>
       </c>
       <c r="Q30" t="n">
         <v>146.1863963226125</v>
       </c>
       <c r="R30" t="n">
-        <v>71.10413092162256</v>
+        <v>71.10413092162254</v>
       </c>
       <c r="S30" t="n">
-        <v>21.27196909106183</v>
+        <v>21.27196909106182</v>
       </c>
       <c r="T30" t="n">
-        <v>4.616042407245767</v>
+        <v>4.616042407245766</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0753434560486252</v>
+        <v>0.07534345604862519</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,28 +33332,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9601144235267426</v>
+        <v>0.9601144235267424</v>
       </c>
       <c r="H31" t="n">
-        <v>8.536290056446862</v>
+        <v>8.536290056446861</v>
       </c>
       <c r="I31" t="n">
         <v>28.8732592093315</v>
       </c>
       <c r="J31" t="n">
-        <v>67.88008974334069</v>
+        <v>67.88008974334068</v>
       </c>
       <c r="K31" t="n">
-        <v>111.5478393879252</v>
+        <v>111.5478393879251</v>
       </c>
       <c r="L31" t="n">
         <v>142.7428298396032</v>
       </c>
       <c r="M31" t="n">
-        <v>150.5023000442875</v>
+        <v>150.5023000442874</v>
       </c>
       <c r="N31" t="n">
-        <v>146.9236917384152</v>
+        <v>146.9236917384151</v>
       </c>
       <c r="O31" t="n">
         <v>135.7078096090345</v>
@@ -33362,19 +33362,19 @@
         <v>116.1214753690889</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.39649050095296</v>
+        <v>80.39649050095295</v>
       </c>
       <c r="R31" t="n">
-        <v>43.1702358069388</v>
+        <v>43.17023580693878</v>
       </c>
       <c r="S31" t="n">
         <v>16.73217590818877</v>
       </c>
       <c r="T31" t="n">
-        <v>4.102307082341535</v>
+        <v>4.102307082341534</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05236987764691329</v>
+        <v>0.05236987764691328</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.140410409689585</v>
+        <v>2.140410409689584</v>
       </c>
       <c r="H32" t="n">
         <v>21.92047810823346</v>
       </c>
       <c r="I32" t="n">
-        <v>82.51817231955779</v>
+        <v>82.51817231955778</v>
       </c>
       <c r="J32" t="n">
         <v>181.6646580093915</v>
@@ -33426,31 +33426,31 @@
         <v>272.2682306515517</v>
       </c>
       <c r="L32" t="n">
-        <v>337.7728157270894</v>
+        <v>337.7728157270893</v>
       </c>
       <c r="M32" t="n">
         <v>375.8373393504065</v>
       </c>
       <c r="N32" t="n">
-        <v>381.9187804269371</v>
+        <v>381.918780426937</v>
       </c>
       <c r="O32" t="n">
         <v>360.6350744155862</v>
       </c>
       <c r="P32" t="n">
-        <v>307.7936924263746</v>
+        <v>307.7936924263745</v>
       </c>
       <c r="Q32" t="n">
-        <v>231.1402446293663</v>
+        <v>231.1402446293662</v>
       </c>
       <c r="R32" t="n">
-        <v>134.4525553976635</v>
+        <v>134.4525553976634</v>
       </c>
       <c r="S32" t="n">
         <v>48.77460221080145</v>
       </c>
       <c r="T32" t="n">
-        <v>9.369646568416162</v>
+        <v>9.36964656841616</v>
       </c>
       <c r="U32" t="n">
         <v>0.1712328327751667</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.145220531939103</v>
+        <v>1.145220531939102</v>
       </c>
       <c r="H33" t="n">
         <v>11.06041934793818</v>
@@ -33502,37 +33502,37 @@
         <v>108.1982257828957</v>
       </c>
       <c r="K33" t="n">
-        <v>184.9280014228156</v>
+        <v>184.9280014228155</v>
       </c>
       <c r="L33" t="n">
-        <v>248.6585194458127</v>
+        <v>248.6585194458126</v>
       </c>
       <c r="M33" t="n">
         <v>290.172763728605</v>
       </c>
       <c r="N33" t="n">
-        <v>297.852773348495</v>
+        <v>297.8527733484949</v>
       </c>
       <c r="O33" t="n">
-        <v>272.477097351318</v>
+        <v>272.4770973513179</v>
       </c>
       <c r="P33" t="n">
-        <v>218.6868926296696</v>
+        <v>218.6868926296695</v>
       </c>
       <c r="Q33" t="n">
         <v>146.1863963226125</v>
       </c>
       <c r="R33" t="n">
-        <v>71.10413092162256</v>
+        <v>71.10413092162254</v>
       </c>
       <c r="S33" t="n">
-        <v>21.27196909106183</v>
+        <v>21.27196909106182</v>
       </c>
       <c r="T33" t="n">
-        <v>4.616042407245767</v>
+        <v>4.616042407245766</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0753434560486252</v>
+        <v>0.07534345604862519</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,28 +33569,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9601144235267426</v>
+        <v>0.9601144235267424</v>
       </c>
       <c r="H34" t="n">
-        <v>8.536290056446862</v>
+        <v>8.536290056446861</v>
       </c>
       <c r="I34" t="n">
         <v>28.8732592093315</v>
       </c>
       <c r="J34" t="n">
-        <v>67.88008974334069</v>
+        <v>67.88008974334068</v>
       </c>
       <c r="K34" t="n">
-        <v>111.5478393879252</v>
+        <v>111.5478393879251</v>
       </c>
       <c r="L34" t="n">
         <v>142.7428298396032</v>
       </c>
       <c r="M34" t="n">
-        <v>150.5023000442875</v>
+        <v>150.5023000442874</v>
       </c>
       <c r="N34" t="n">
-        <v>146.9236917384152</v>
+        <v>146.9236917384151</v>
       </c>
       <c r="O34" t="n">
         <v>135.7078096090345</v>
@@ -33599,19 +33599,19 @@
         <v>116.1214753690889</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.39649050095296</v>
+        <v>80.39649050095295</v>
       </c>
       <c r="R34" t="n">
-        <v>43.1702358069388</v>
+        <v>43.17023580693878</v>
       </c>
       <c r="S34" t="n">
         <v>16.73217590818877</v>
       </c>
       <c r="T34" t="n">
-        <v>4.102307082341535</v>
+        <v>4.102307082341534</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05236987764691329</v>
+        <v>0.05236987764691328</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.140410409689585</v>
+        <v>2.140410409689584</v>
       </c>
       <c r="H35" t="n">
         <v>21.92047810823346</v>
       </c>
       <c r="I35" t="n">
-        <v>82.51817231955779</v>
+        <v>82.51817231955778</v>
       </c>
       <c r="J35" t="n">
         <v>181.6646580093915</v>
@@ -33663,31 +33663,31 @@
         <v>272.2682306515517</v>
       </c>
       <c r="L35" t="n">
-        <v>337.7728157270894</v>
+        <v>337.7728157270893</v>
       </c>
       <c r="M35" t="n">
         <v>375.8373393504065</v>
       </c>
       <c r="N35" t="n">
-        <v>381.9187804269371</v>
+        <v>381.918780426937</v>
       </c>
       <c r="O35" t="n">
         <v>360.6350744155862</v>
       </c>
       <c r="P35" t="n">
-        <v>307.7936924263746</v>
+        <v>307.7936924263745</v>
       </c>
       <c r="Q35" t="n">
-        <v>231.1402446293663</v>
+        <v>231.1402446293662</v>
       </c>
       <c r="R35" t="n">
-        <v>134.4525553976635</v>
+        <v>134.4525553976634</v>
       </c>
       <c r="S35" t="n">
         <v>48.77460221080145</v>
       </c>
       <c r="T35" t="n">
-        <v>9.369646568416162</v>
+        <v>9.36964656841616</v>
       </c>
       <c r="U35" t="n">
         <v>0.1712328327751667</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.145220531939103</v>
+        <v>1.145220531939102</v>
       </c>
       <c r="H36" t="n">
         <v>11.06041934793818</v>
@@ -33739,37 +33739,37 @@
         <v>108.1982257828957</v>
       </c>
       <c r="K36" t="n">
-        <v>184.9280014228156</v>
+        <v>184.9280014228155</v>
       </c>
       <c r="L36" t="n">
-        <v>248.6585194458127</v>
+        <v>248.6585194458126</v>
       </c>
       <c r="M36" t="n">
         <v>290.172763728605</v>
       </c>
       <c r="N36" t="n">
-        <v>297.852773348495</v>
+        <v>297.8527733484949</v>
       </c>
       <c r="O36" t="n">
-        <v>272.477097351318</v>
+        <v>272.4770973513179</v>
       </c>
       <c r="P36" t="n">
-        <v>218.6868926296696</v>
+        <v>218.6868926296695</v>
       </c>
       <c r="Q36" t="n">
         <v>146.1863963226125</v>
       </c>
       <c r="R36" t="n">
-        <v>71.10413092162256</v>
+        <v>71.10413092162254</v>
       </c>
       <c r="S36" t="n">
-        <v>21.27196909106183</v>
+        <v>21.27196909106182</v>
       </c>
       <c r="T36" t="n">
-        <v>4.616042407245767</v>
+        <v>4.616042407245766</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0753434560486252</v>
+        <v>0.07534345604862519</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,28 +33806,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9601144235267426</v>
+        <v>0.9601144235267424</v>
       </c>
       <c r="H37" t="n">
-        <v>8.536290056446862</v>
+        <v>8.536290056446861</v>
       </c>
       <c r="I37" t="n">
         <v>28.8732592093315</v>
       </c>
       <c r="J37" t="n">
-        <v>67.88008974334069</v>
+        <v>67.88008974334068</v>
       </c>
       <c r="K37" t="n">
-        <v>111.5478393879252</v>
+        <v>111.5478393879251</v>
       </c>
       <c r="L37" t="n">
         <v>142.7428298396032</v>
       </c>
       <c r="M37" t="n">
-        <v>150.5023000442875</v>
+        <v>150.5023000442874</v>
       </c>
       <c r="N37" t="n">
-        <v>146.9236917384152</v>
+        <v>146.9236917384151</v>
       </c>
       <c r="O37" t="n">
         <v>135.7078096090345</v>
@@ -33836,19 +33836,19 @@
         <v>116.1214753690889</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.39649050095296</v>
+        <v>80.39649050095295</v>
       </c>
       <c r="R37" t="n">
-        <v>43.1702358069388</v>
+        <v>43.17023580693878</v>
       </c>
       <c r="S37" t="n">
         <v>16.73217590818877</v>
       </c>
       <c r="T37" t="n">
-        <v>4.102307082341535</v>
+        <v>4.102307082341534</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05236987764691329</v>
+        <v>0.05236987764691328</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.140410409689585</v>
+        <v>2.140410409689584</v>
       </c>
       <c r="H38" t="n">
         <v>21.92047810823346</v>
       </c>
       <c r="I38" t="n">
-        <v>82.51817231955779</v>
+        <v>82.51817231955778</v>
       </c>
       <c r="J38" t="n">
         <v>181.6646580093915</v>
@@ -33900,31 +33900,31 @@
         <v>272.2682306515517</v>
       </c>
       <c r="L38" t="n">
-        <v>337.7728157270894</v>
+        <v>337.7728157270893</v>
       </c>
       <c r="M38" t="n">
         <v>375.8373393504065</v>
       </c>
       <c r="N38" t="n">
-        <v>381.9187804269371</v>
+        <v>381.918780426937</v>
       </c>
       <c r="O38" t="n">
         <v>360.6350744155862</v>
       </c>
       <c r="P38" t="n">
-        <v>307.7936924263746</v>
+        <v>307.7936924263745</v>
       </c>
       <c r="Q38" t="n">
-        <v>231.1402446293663</v>
+        <v>231.1402446293662</v>
       </c>
       <c r="R38" t="n">
-        <v>134.4525553976635</v>
+        <v>134.4525553976634</v>
       </c>
       <c r="S38" t="n">
         <v>48.77460221080145</v>
       </c>
       <c r="T38" t="n">
-        <v>9.369646568416162</v>
+        <v>9.36964656841616</v>
       </c>
       <c r="U38" t="n">
         <v>0.1712328327751667</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.145220531939103</v>
+        <v>1.145220531939102</v>
       </c>
       <c r="H39" t="n">
         <v>11.06041934793818</v>
@@ -33976,37 +33976,37 @@
         <v>108.1982257828957</v>
       </c>
       <c r="K39" t="n">
-        <v>184.9280014228156</v>
+        <v>184.9280014228155</v>
       </c>
       <c r="L39" t="n">
-        <v>248.6585194458127</v>
+        <v>248.6585194458126</v>
       </c>
       <c r="M39" t="n">
         <v>290.172763728605</v>
       </c>
       <c r="N39" t="n">
-        <v>297.852773348495</v>
+        <v>297.8527733484949</v>
       </c>
       <c r="O39" t="n">
-        <v>272.477097351318</v>
+        <v>272.4770973513179</v>
       </c>
       <c r="P39" t="n">
-        <v>218.6868926296696</v>
+        <v>218.6868926296695</v>
       </c>
       <c r="Q39" t="n">
         <v>146.1863963226125</v>
       </c>
       <c r="R39" t="n">
-        <v>71.10413092162256</v>
+        <v>71.10413092162254</v>
       </c>
       <c r="S39" t="n">
-        <v>21.27196909106183</v>
+        <v>21.27196909106182</v>
       </c>
       <c r="T39" t="n">
-        <v>4.616042407245767</v>
+        <v>4.616042407245766</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0753434560486252</v>
+        <v>0.07534345604862519</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,28 +34043,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9601144235267426</v>
+        <v>0.9601144235267424</v>
       </c>
       <c r="H40" t="n">
-        <v>8.536290056446862</v>
+        <v>8.536290056446861</v>
       </c>
       <c r="I40" t="n">
         <v>28.8732592093315</v>
       </c>
       <c r="J40" t="n">
-        <v>67.88008974334069</v>
+        <v>67.88008974334068</v>
       </c>
       <c r="K40" t="n">
-        <v>111.5478393879252</v>
+        <v>111.5478393879251</v>
       </c>
       <c r="L40" t="n">
         <v>142.7428298396032</v>
       </c>
       <c r="M40" t="n">
-        <v>150.5023000442875</v>
+        <v>150.5023000442874</v>
       </c>
       <c r="N40" t="n">
-        <v>146.9236917384152</v>
+        <v>146.9236917384151</v>
       </c>
       <c r="O40" t="n">
         <v>135.7078096090345</v>
@@ -34073,19 +34073,19 @@
         <v>116.1214753690889</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.39649050095296</v>
+        <v>80.39649050095295</v>
       </c>
       <c r="R40" t="n">
-        <v>43.1702358069388</v>
+        <v>43.17023580693878</v>
       </c>
       <c r="S40" t="n">
         <v>16.73217590818877</v>
       </c>
       <c r="T40" t="n">
-        <v>4.102307082341535</v>
+        <v>4.102307082341534</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05236987764691329</v>
+        <v>0.05236987764691328</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.140410409689585</v>
+        <v>2.140410409689584</v>
       </c>
       <c r="H41" t="n">
         <v>21.92047810823346</v>
       </c>
       <c r="I41" t="n">
-        <v>82.51817231955779</v>
+        <v>82.51817231955778</v>
       </c>
       <c r="J41" t="n">
         <v>181.6646580093915</v>
@@ -34137,31 +34137,31 @@
         <v>272.2682306515517</v>
       </c>
       <c r="L41" t="n">
-        <v>337.7728157270894</v>
+        <v>337.7728157270893</v>
       </c>
       <c r="M41" t="n">
         <v>375.8373393504065</v>
       </c>
       <c r="N41" t="n">
-        <v>381.9187804269371</v>
+        <v>381.918780426937</v>
       </c>
       <c r="O41" t="n">
         <v>360.6350744155862</v>
       </c>
       <c r="P41" t="n">
-        <v>307.7936924263746</v>
+        <v>307.7936924263745</v>
       </c>
       <c r="Q41" t="n">
-        <v>231.1402446293663</v>
+        <v>231.1402446293662</v>
       </c>
       <c r="R41" t="n">
-        <v>134.4525553976635</v>
+        <v>134.4525553976634</v>
       </c>
       <c r="S41" t="n">
         <v>48.77460221080145</v>
       </c>
       <c r="T41" t="n">
-        <v>9.369646568416162</v>
+        <v>9.36964656841616</v>
       </c>
       <c r="U41" t="n">
         <v>0.1712328327751667</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.145220531939103</v>
+        <v>1.145220531939102</v>
       </c>
       <c r="H42" t="n">
         <v>11.06041934793818</v>
@@ -34213,37 +34213,37 @@
         <v>108.1982257828957</v>
       </c>
       <c r="K42" t="n">
-        <v>184.9280014228156</v>
+        <v>184.9280014228155</v>
       </c>
       <c r="L42" t="n">
-        <v>248.6585194458127</v>
+        <v>248.6585194458126</v>
       </c>
       <c r="M42" t="n">
         <v>290.172763728605</v>
       </c>
       <c r="N42" t="n">
-        <v>297.852773348495</v>
+        <v>297.8527733484949</v>
       </c>
       <c r="O42" t="n">
-        <v>272.477097351318</v>
+        <v>272.4770973513179</v>
       </c>
       <c r="P42" t="n">
-        <v>218.6868926296696</v>
+        <v>218.6868926296695</v>
       </c>
       <c r="Q42" t="n">
         <v>146.1863963226125</v>
       </c>
       <c r="R42" t="n">
-        <v>71.10413092162256</v>
+        <v>71.10413092162254</v>
       </c>
       <c r="S42" t="n">
-        <v>21.27196909106183</v>
+        <v>21.27196909106182</v>
       </c>
       <c r="T42" t="n">
-        <v>4.616042407245767</v>
+        <v>4.616042407245766</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0753434560486252</v>
+        <v>0.07534345604862519</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,28 +34280,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9601144235267426</v>
+        <v>0.9601144235267424</v>
       </c>
       <c r="H43" t="n">
-        <v>8.536290056446862</v>
+        <v>8.536290056446861</v>
       </c>
       <c r="I43" t="n">
         <v>28.8732592093315</v>
       </c>
       <c r="J43" t="n">
-        <v>67.88008974334069</v>
+        <v>67.88008974334068</v>
       </c>
       <c r="K43" t="n">
-        <v>111.5478393879252</v>
+        <v>111.5478393879251</v>
       </c>
       <c r="L43" t="n">
         <v>142.7428298396032</v>
       </c>
       <c r="M43" t="n">
-        <v>150.5023000442875</v>
+        <v>150.5023000442874</v>
       </c>
       <c r="N43" t="n">
-        <v>146.9236917384152</v>
+        <v>146.9236917384151</v>
       </c>
       <c r="O43" t="n">
         <v>135.7078096090345</v>
@@ -34310,19 +34310,19 @@
         <v>116.1214753690889</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.39649050095296</v>
+        <v>80.39649050095295</v>
       </c>
       <c r="R43" t="n">
-        <v>43.1702358069388</v>
+        <v>43.17023580693878</v>
       </c>
       <c r="S43" t="n">
         <v>16.73217590818877</v>
       </c>
       <c r="T43" t="n">
-        <v>4.102307082341535</v>
+        <v>4.102307082341534</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05236987764691329</v>
+        <v>0.05236987764691328</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.140410409689585</v>
+        <v>2.140410409689584</v>
       </c>
       <c r="H44" t="n">
         <v>21.92047810823346</v>
       </c>
       <c r="I44" t="n">
-        <v>82.51817231955779</v>
+        <v>82.51817231955778</v>
       </c>
       <c r="J44" t="n">
         <v>181.6646580093915</v>
@@ -34374,31 +34374,31 @@
         <v>272.2682306515517</v>
       </c>
       <c r="L44" t="n">
-        <v>337.7728157270894</v>
+        <v>337.7728157270893</v>
       </c>
       <c r="M44" t="n">
         <v>375.8373393504065</v>
       </c>
       <c r="N44" t="n">
-        <v>381.9187804269371</v>
+        <v>381.918780426937</v>
       </c>
       <c r="O44" t="n">
         <v>360.6350744155862</v>
       </c>
       <c r="P44" t="n">
-        <v>307.7936924263746</v>
+        <v>307.7936924263745</v>
       </c>
       <c r="Q44" t="n">
-        <v>231.1402446293663</v>
+        <v>231.1402446293662</v>
       </c>
       <c r="R44" t="n">
-        <v>134.4525553976635</v>
+        <v>134.4525553976634</v>
       </c>
       <c r="S44" t="n">
         <v>48.77460221080145</v>
       </c>
       <c r="T44" t="n">
-        <v>9.369646568416162</v>
+        <v>9.36964656841616</v>
       </c>
       <c r="U44" t="n">
         <v>0.1712328327751667</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.145220531939103</v>
+        <v>1.145220531939102</v>
       </c>
       <c r="H45" t="n">
         <v>11.06041934793818</v>
@@ -34450,37 +34450,37 @@
         <v>108.1982257828957</v>
       </c>
       <c r="K45" t="n">
-        <v>184.9280014228156</v>
+        <v>184.9280014228155</v>
       </c>
       <c r="L45" t="n">
-        <v>248.6585194458127</v>
+        <v>248.6585194458126</v>
       </c>
       <c r="M45" t="n">
         <v>290.172763728605</v>
       </c>
       <c r="N45" t="n">
-        <v>297.852773348495</v>
+        <v>297.8527733484949</v>
       </c>
       <c r="O45" t="n">
-        <v>272.477097351318</v>
+        <v>272.4770973513179</v>
       </c>
       <c r="P45" t="n">
-        <v>218.6868926296696</v>
+        <v>218.6868926296695</v>
       </c>
       <c r="Q45" t="n">
         <v>146.1863963226125</v>
       </c>
       <c r="R45" t="n">
-        <v>71.10413092162256</v>
+        <v>71.10413092162254</v>
       </c>
       <c r="S45" t="n">
-        <v>21.27196909106183</v>
+        <v>21.27196909106182</v>
       </c>
       <c r="T45" t="n">
-        <v>4.616042407245767</v>
+        <v>4.616042407245766</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0753434560486252</v>
+        <v>0.07534345604862519</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,28 +34517,28 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9601144235267426</v>
+        <v>0.9601144235267424</v>
       </c>
       <c r="H46" t="n">
-        <v>8.536290056446862</v>
+        <v>8.536290056446861</v>
       </c>
       <c r="I46" t="n">
         <v>28.8732592093315</v>
       </c>
       <c r="J46" t="n">
-        <v>67.88008974334069</v>
+        <v>67.88008974334068</v>
       </c>
       <c r="K46" t="n">
-        <v>111.5478393879252</v>
+        <v>111.5478393879251</v>
       </c>
       <c r="L46" t="n">
         <v>142.7428298396032</v>
       </c>
       <c r="M46" t="n">
-        <v>150.5023000442875</v>
+        <v>150.5023000442874</v>
       </c>
       <c r="N46" t="n">
-        <v>146.9236917384152</v>
+        <v>146.9236917384151</v>
       </c>
       <c r="O46" t="n">
         <v>135.7078096090345</v>
@@ -34547,19 +34547,19 @@
         <v>116.1214753690889</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.39649050095296</v>
+        <v>80.39649050095295</v>
       </c>
       <c r="R46" t="n">
-        <v>43.1702358069388</v>
+        <v>43.17023580693878</v>
       </c>
       <c r="S46" t="n">
         <v>16.73217590818877</v>
       </c>
       <c r="T46" t="n">
-        <v>4.102307082341535</v>
+        <v>4.102307082341534</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05236987764691329</v>
+        <v>0.05236987764691328</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>70.36326111833803</v>
       </c>
       <c r="K11" t="n">
-        <v>123.9698472542777</v>
+        <v>3.758612376675387</v>
       </c>
       <c r="L11" t="n">
         <v>50.13778946370491</v>
       </c>
       <c r="M11" t="n">
-        <v>94.81493481313373</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="N11" t="n">
-        <v>116.343240682576</v>
+        <v>102.0348428390961</v>
       </c>
       <c r="O11" t="n">
-        <v>79.91525648112838</v>
+        <v>114.9167156427286</v>
       </c>
       <c r="P11" t="n">
         <v>25.68943760494568</v>
@@ -35500,7 +35500,7 @@
         <v>116.7692423437426</v>
       </c>
       <c r="N12" t="n">
-        <v>123.9698472542777</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="O12" t="n">
         <v>98.50967912909573</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>70.36326111833803</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>3.758612376675387</v>
       </c>
       <c r="L14" t="n">
-        <v>50.13778946370491</v>
+        <v>86.37701253545511</v>
       </c>
       <c r="M14" t="n">
         <v>94.81493481313373</v>
@@ -35664,7 +35664,7 @@
         <v>79.91525648112838</v>
       </c>
       <c r="P14" t="n">
-        <v>89.8458092076899</v>
+        <v>123.9698472542778</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>70.36326111833803</v>
       </c>
       <c r="K17" t="n">
         <v>213.8048397227901</v>
       </c>
       <c r="L17" t="n">
-        <v>320.7822564923968</v>
+        <v>50.13778946370491</v>
       </c>
       <c r="M17" t="n">
-        <v>94.81493481313373</v>
+        <v>376.2956164255465</v>
       </c>
       <c r="N17" t="n">
-        <v>299.6877969444904</v>
+        <v>376.2956164255465</v>
       </c>
       <c r="O17" t="n">
         <v>326.6737739393874</v>
       </c>
       <c r="P17" t="n">
-        <v>234.2150005000665</v>
+        <v>25.68943760494568</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>50.71826771200546</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>319.9267198710077</v>
       </c>
       <c r="M18" t="n">
-        <v>337.4873831435753</v>
+        <v>193.8033146427507</v>
       </c>
       <c r="N18" t="n">
         <v>137.6158846068282</v>
       </c>
       <c r="O18" t="n">
-        <v>98.50967912909573</v>
+        <v>353.7324620204165</v>
       </c>
       <c r="P18" t="n">
         <v>261.6019896628659</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.5387143904964</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>320.7822564923968</v>
       </c>
       <c r="M20" t="n">
-        <v>376.2956164255471</v>
+        <v>292.46788891853</v>
       </c>
       <c r="N20" t="n">
-        <v>375.983778755303</v>
+        <v>102.0348428390961</v>
       </c>
       <c r="O20" t="n">
-        <v>79.91525648112838</v>
+        <v>326.6737739393874</v>
       </c>
       <c r="P20" t="n">
-        <v>25.68943760494568</v>
+        <v>234.2150005000665</v>
       </c>
       <c r="Q20" t="n">
-        <v>97.5074169301561</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>35.16331215014723</v>
       </c>
       <c r="K21" t="n">
-        <v>16.76144587409755</v>
+        <v>188.1349194582485</v>
       </c>
       <c r="L21" t="n">
         <v>319.9267198710077</v>
       </c>
       <c r="M21" t="n">
-        <v>376.2956164255471</v>
+        <v>116.7692423437426</v>
       </c>
       <c r="N21" t="n">
-        <v>376.2956164255471</v>
+        <v>214.6499569058384</v>
       </c>
       <c r="O21" t="n">
-        <v>98.50967912909573</v>
+        <v>353.7324620204165</v>
       </c>
       <c r="P21" t="n">
-        <v>155.4874981463284</v>
+        <v>261.6019896628659</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.5387143904964</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>70.36326111833806</v>
+        <v>70.36326111833803</v>
       </c>
       <c r="K23" t="n">
-        <v>213.8048397227902</v>
+        <v>213.8048397227901</v>
       </c>
       <c r="L23" t="n">
         <v>320.7822564923968</v>
       </c>
       <c r="M23" t="n">
-        <v>386.0997045164893</v>
+        <v>386.0997045164892</v>
       </c>
       <c r="N23" t="n">
-        <v>385.4356498580619</v>
+        <v>385.4356498580618</v>
       </c>
       <c r="O23" t="n">
         <v>326.6737739393874</v>
@@ -36378,7 +36378,7 @@
         <v>234.2150005000665</v>
       </c>
       <c r="Q23" t="n">
-        <v>97.50741693015615</v>
+        <v>97.5074169301561</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>121.3061502977061</v>
+        <v>188.1349194582485</v>
       </c>
       <c r="L24" t="n">
         <v>319.9267198710077</v>
       </c>
       <c r="M24" t="n">
-        <v>418.5461236537427</v>
+        <v>418.5461236537426</v>
       </c>
       <c r="N24" t="n">
-        <v>448.229743181451</v>
+        <v>381.4009740209087</v>
       </c>
       <c r="O24" t="n">
         <v>353.7324620204165</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>23.32162501120685</v>
+        <v>23.32162501120683</v>
       </c>
       <c r="L25" t="n">
-        <v>83.46713137541974</v>
+        <v>83.46713137541971</v>
       </c>
       <c r="M25" t="n">
-        <v>96.68710389753009</v>
+        <v>96.68710389753004</v>
       </c>
       <c r="N25" t="n">
         <v>102.4852080060419</v>
       </c>
       <c r="O25" t="n">
-        <v>72.4418325028782</v>
+        <v>72.44183250287817</v>
       </c>
       <c r="P25" t="n">
-        <v>35.57756345662743</v>
+        <v>35.57756345662742</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>70.36326111833806</v>
+        <v>70.36326111833803</v>
       </c>
       <c r="K26" t="n">
-        <v>213.8048397227902</v>
+        <v>213.8048397227901</v>
       </c>
       <c r="L26" t="n">
         <v>320.7822564923968</v>
       </c>
       <c r="M26" t="n">
-        <v>386.0997045164893</v>
+        <v>386.0997045164892</v>
       </c>
       <c r="N26" t="n">
-        <v>385.4356498580619</v>
+        <v>385.4356498580618</v>
       </c>
       <c r="O26" t="n">
-        <v>326.6737739393874</v>
+        <v>326.6737739393875</v>
       </c>
       <c r="P26" t="n">
-        <v>234.2150005000666</v>
+        <v>234.2150005000665</v>
       </c>
       <c r="Q26" t="n">
-        <v>97.50741693015615</v>
+        <v>97.5074169301561</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>35.16331215014725</v>
+        <v>35.16331215014723</v>
       </c>
       <c r="K27" t="n">
-        <v>188.1349194582486</v>
+        <v>188.1349194582485</v>
       </c>
       <c r="L27" t="n">
         <v>319.9267198710077</v>
       </c>
       <c r="M27" t="n">
-        <v>418.5461236537427</v>
+        <v>418.5461236537426</v>
       </c>
       <c r="N27" t="n">
-        <v>346.2376618707613</v>
+        <v>448.2297431814509</v>
       </c>
       <c r="O27" t="n">
-        <v>353.7324620204165</v>
+        <v>251.7403807097271</v>
       </c>
       <c r="P27" t="n">
         <v>261.6019896628659</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>23.32162501120685</v>
+        <v>23.32162501120683</v>
       </c>
       <c r="L28" t="n">
-        <v>83.46713137541974</v>
+        <v>83.46713137541971</v>
       </c>
       <c r="M28" t="n">
-        <v>96.68710389753009</v>
+        <v>96.68710389753004</v>
       </c>
       <c r="N28" t="n">
         <v>102.4852080060419</v>
       </c>
       <c r="O28" t="n">
-        <v>72.4418325028782</v>
+        <v>72.44183250287817</v>
       </c>
       <c r="P28" t="n">
-        <v>35.57756345662743</v>
+        <v>35.57756345662742</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>70.36326111833806</v>
+        <v>70.36326111833803</v>
       </c>
       <c r="K29" t="n">
-        <v>213.8048397227902</v>
+        <v>213.8048397227901</v>
       </c>
       <c r="L29" t="n">
         <v>320.7822564923968</v>
       </c>
       <c r="M29" t="n">
-        <v>386.0997045164893</v>
+        <v>386.0997045164892</v>
       </c>
       <c r="N29" t="n">
-        <v>385.435649858062</v>
+        <v>385.4356498580618</v>
       </c>
       <c r="O29" t="n">
         <v>326.6737739393874</v>
@@ -36852,7 +36852,7 @@
         <v>234.2150005000665</v>
       </c>
       <c r="Q29" t="n">
-        <v>97.50741693015615</v>
+        <v>97.5074169301561</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>35.16331215014725</v>
+        <v>35.16331215014723</v>
       </c>
       <c r="K30" t="n">
-        <v>188.1349194582486</v>
+        <v>188.1349194582485</v>
       </c>
       <c r="L30" t="n">
         <v>319.9267198710077</v>
       </c>
       <c r="M30" t="n">
-        <v>418.5461236537427</v>
+        <v>418.5461236537426</v>
       </c>
       <c r="N30" t="n">
-        <v>448.229743181451</v>
+        <v>448.2297431814509</v>
       </c>
       <c r="O30" t="n">
         <v>353.7324620204165</v>
@@ -36931,7 +36931,7 @@
         <v>261.6019896628659</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.546633079806803</v>
+        <v>9.546633079807032</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>23.32162501120685</v>
+        <v>23.32162501120683</v>
       </c>
       <c r="L31" t="n">
-        <v>83.46713137541974</v>
+        <v>83.46713137541971</v>
       </c>
       <c r="M31" t="n">
-        <v>96.68710389753009</v>
+        <v>96.68710389753004</v>
       </c>
       <c r="N31" t="n">
         <v>102.4852080060419</v>
       </c>
       <c r="O31" t="n">
-        <v>72.4418325028782</v>
+        <v>72.44183250287817</v>
       </c>
       <c r="P31" t="n">
-        <v>35.57756345662743</v>
+        <v>35.57756345662742</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>70.36326111833806</v>
+        <v>70.36326111833803</v>
       </c>
       <c r="K32" t="n">
-        <v>213.8048397227902</v>
+        <v>213.8048397227901</v>
       </c>
       <c r="L32" t="n">
         <v>320.7822564923968</v>
       </c>
       <c r="M32" t="n">
-        <v>386.0997045164893</v>
+        <v>386.0997045164892</v>
       </c>
       <c r="N32" t="n">
-        <v>385.4356498580619</v>
+        <v>385.4356498580618</v>
       </c>
       <c r="O32" t="n">
         <v>326.6737739393874</v>
@@ -37089,7 +37089,7 @@
         <v>234.2150005000665</v>
       </c>
       <c r="Q32" t="n">
-        <v>97.50741693015615</v>
+        <v>97.5074169301561</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>35.16331215014725</v>
+        <v>35.16331215014723</v>
       </c>
       <c r="K33" t="n">
-        <v>86.14283814755888</v>
+        <v>86.14283814755849</v>
       </c>
       <c r="L33" t="n">
         <v>319.9267198710077</v>
       </c>
       <c r="M33" t="n">
-        <v>418.5461236537427</v>
+        <v>418.5461236537426</v>
       </c>
       <c r="N33" t="n">
-        <v>448.229743181451</v>
+        <v>448.2297431814509</v>
       </c>
       <c r="O33" t="n">
         <v>353.7324620204165</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>23.32162501120685</v>
+        <v>23.32162501120683</v>
       </c>
       <c r="L34" t="n">
-        <v>83.46713137541974</v>
+        <v>83.46713137541971</v>
       </c>
       <c r="M34" t="n">
-        <v>96.68710389753009</v>
+        <v>96.68710389753004</v>
       </c>
       <c r="N34" t="n">
         <v>102.4852080060419</v>
       </c>
       <c r="O34" t="n">
-        <v>72.4418325028782</v>
+        <v>72.44183250287817</v>
       </c>
       <c r="P34" t="n">
-        <v>35.57756345662743</v>
+        <v>35.57756345662742</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>70.36326111833806</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>3.758612376675444</v>
+        <v>99.33057436663849</v>
       </c>
       <c r="L35" t="n">
         <v>320.7822564923968</v>
       </c>
       <c r="M35" t="n">
-        <v>105.2754255628377</v>
+        <v>386.0997045164892</v>
       </c>
       <c r="N35" t="n">
-        <v>385.4356498580619</v>
+        <v>385.4356498580618</v>
       </c>
       <c r="O35" t="n">
         <v>326.6737739393874</v>
       </c>
       <c r="P35" t="n">
-        <v>234.2150005000665</v>
+        <v>25.68943760494568</v>
       </c>
       <c r="Q35" t="n">
-        <v>97.50741693015615</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.1349194582486</v>
+        <v>188.1349194582485</v>
       </c>
       <c r="L36" t="n">
         <v>319.9267198710077</v>
       </c>
       <c r="M36" t="n">
-        <v>282.9994211585528</v>
+        <v>171.4607067680561</v>
       </c>
       <c r="N36" t="n">
-        <v>137.6158846068283</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="O36" t="n">
         <v>353.7324620204165</v>
@@ -37405,7 +37405,7 @@
         <v>261.6019896628659</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>111.5387143904964</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>23.32162501120685</v>
+        <v>23.32162501120683</v>
       </c>
       <c r="L37" t="n">
-        <v>83.46713137541974</v>
+        <v>83.46713137541971</v>
       </c>
       <c r="M37" t="n">
-        <v>96.68710389753009</v>
+        <v>96.68710389753004</v>
       </c>
       <c r="N37" t="n">
         <v>102.4852080060419</v>
       </c>
       <c r="O37" t="n">
-        <v>72.4418325028782</v>
+        <v>72.44183250287817</v>
       </c>
       <c r="P37" t="n">
-        <v>35.57756345662743</v>
+        <v>35.57756345662742</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>70.36326111833803</v>
       </c>
       <c r="K38" t="n">
-        <v>3.758612376675444</v>
+        <v>213.8048397227901</v>
       </c>
       <c r="L38" t="n">
         <v>320.7822564923968</v>
       </c>
       <c r="M38" t="n">
-        <v>386.0997045164893</v>
+        <v>386.0997045164892</v>
       </c>
       <c r="N38" t="n">
-        <v>385.4356498580619</v>
+        <v>385.4356498580618</v>
       </c>
       <c r="O38" t="n">
-        <v>326.6737739393874</v>
+        <v>79.91525648112838</v>
       </c>
       <c r="P38" t="n">
-        <v>121.2613995949091</v>
+        <v>87.61042858871502</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>35.16331215014723</v>
       </c>
       <c r="K39" t="n">
-        <v>188.1349194582486</v>
+        <v>188.1349194582485</v>
       </c>
       <c r="L39" t="n">
         <v>319.9267198710077</v>
       </c>
       <c r="M39" t="n">
-        <v>116.7692423437427</v>
+        <v>247.8361090084054</v>
       </c>
       <c r="N39" t="n">
-        <v>389.9416537780971</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="O39" t="n">
-        <v>267.6368716639578</v>
+        <v>353.7324620204165</v>
       </c>
       <c r="P39" t="n">
         <v>261.6019896628659</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>23.32162501120685</v>
+        <v>23.32162501120683</v>
       </c>
       <c r="L40" t="n">
-        <v>83.46713137541974</v>
+        <v>83.46713137541971</v>
       </c>
       <c r="M40" t="n">
-        <v>96.68710389753009</v>
+        <v>96.68710389753004</v>
       </c>
       <c r="N40" t="n">
         <v>102.4852080060419</v>
       </c>
       <c r="O40" t="n">
-        <v>72.4418325028782</v>
+        <v>72.44183250287817</v>
       </c>
       <c r="P40" t="n">
-        <v>35.57756345662743</v>
+        <v>35.57756345662742</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>70.36326111833803</v>
       </c>
       <c r="K41" t="n">
-        <v>104.8329443202886</v>
+        <v>121.9477783450741</v>
       </c>
       <c r="L41" t="n">
-        <v>137.6158846068283</v>
+        <v>50.13778946370491</v>
       </c>
       <c r="M41" t="n">
-        <v>94.81493481313379</v>
+        <v>94.81493481313373</v>
       </c>
       <c r="N41" t="n">
-        <v>102.0348428390962</v>
+        <v>102.0348428390961</v>
       </c>
       <c r="O41" t="n">
-        <v>79.91525648112844</v>
+        <v>79.91525648112838</v>
       </c>
       <c r="P41" t="n">
-        <v>25.68943760494574</v>
+        <v>25.68943760494568</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35.16331215014725</v>
+        <v>35.16331215014723</v>
       </c>
       <c r="K42" t="n">
-        <v>16.7614458740976</v>
+        <v>16.76144587409755</v>
       </c>
       <c r="L42" t="n">
-        <v>79.62217611436614</v>
+        <v>79.62217611436608</v>
       </c>
       <c r="M42" t="n">
-        <v>121.9926872066994</v>
+        <v>121.9926872066995</v>
       </c>
       <c r="N42" t="n">
-        <v>137.6158846068283</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="O42" t="n">
-        <v>98.50967912909579</v>
+        <v>98.50967912909573</v>
       </c>
       <c r="P42" t="n">
-        <v>55.23811558418666</v>
+        <v>55.2381155841866</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>23.32162501120685</v>
+        <v>23.32162501120683</v>
       </c>
       <c r="L43" t="n">
-        <v>83.46713137541974</v>
+        <v>83.46713137541971</v>
       </c>
       <c r="M43" t="n">
-        <v>96.68710389753009</v>
+        <v>96.68710389753004</v>
       </c>
       <c r="N43" t="n">
         <v>102.4852080060419</v>
       </c>
       <c r="O43" t="n">
-        <v>72.4418325028782</v>
+        <v>72.44183250287817</v>
       </c>
       <c r="P43" t="n">
-        <v>35.57756345662743</v>
+        <v>35.57756345662742</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>70.36326111833806</v>
+        <v>70.36326111833803</v>
       </c>
       <c r="K44" t="n">
-        <v>3.758612376675444</v>
+        <v>121.9477783450741</v>
       </c>
       <c r="L44" t="n">
-        <v>50.13778946370496</v>
+        <v>50.13778946370491</v>
       </c>
       <c r="M44" t="n">
-        <v>115.4966838513761</v>
+        <v>94.81493481313373</v>
       </c>
       <c r="N44" t="n">
-        <v>102.0348428390962</v>
+        <v>102.0348428390961</v>
       </c>
       <c r="O44" t="n">
-        <v>79.91525648112844</v>
+        <v>79.91525648112838</v>
       </c>
       <c r="P44" t="n">
-        <v>25.68943760494574</v>
+        <v>25.68943760494568</v>
       </c>
       <c r="Q44" t="n">
-        <v>97.50741693015615</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>35.16331215014725</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>16.7614458740976</v>
+        <v>16.76144587409755</v>
       </c>
       <c r="L45" t="n">
-        <v>79.62217611436614</v>
+        <v>99.16229086438459</v>
       </c>
       <c r="M45" t="n">
-        <v>116.7692423437427</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="N45" t="n">
-        <v>137.6158846068283</v>
+        <v>137.6158846068282</v>
       </c>
       <c r="O45" t="n">
-        <v>98.50967912909579</v>
+        <v>98.50967912909573</v>
       </c>
       <c r="P45" t="n">
-        <v>60.46156044714334</v>
+        <v>55.2381155841866</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>23.32162501120685</v>
+        <v>23.32162501120683</v>
       </c>
       <c r="L46" t="n">
-        <v>83.46713137541974</v>
+        <v>83.46713137541971</v>
       </c>
       <c r="M46" t="n">
-        <v>96.68710389753009</v>
+        <v>96.68710389753004</v>
       </c>
       <c r="N46" t="n">
         <v>102.4852080060419</v>
       </c>
       <c r="O46" t="n">
-        <v>72.4418325028782</v>
+        <v>72.44183250287817</v>
       </c>
       <c r="P46" t="n">
-        <v>35.57756345662743</v>
+        <v>35.57756345662742</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
